--- a/Arquivos/Análises/Análise Completa.xlsx
+++ b/Arquivos/Análises/Análise Completa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28110" windowHeight="13035" firstSheet="3" activeTab="6"/>
+    <workbookView windowWidth="13725" windowHeight="12885" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Melhor heurística em cada caso" sheetId="1" r:id="rId1"/>
@@ -464,14 +464,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1458,6 +1458,9 @@
     <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1467,7 +1470,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1483,9 +1486,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1551,7 +1551,7 @@
     <xf numFmtId="180" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="181" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2075,8 +2075,8 @@
   <sheetPr/>
   <dimension ref="B2:AC66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -11171,14 +11171,14 @@
   <sheetPr/>
   <dimension ref="B2:CK51"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
   <cols>
     <col min="10" max="10" width="11.1428571428571" customWidth="1"/>
-    <col min="16" max="16" width="9.57142857142857"/>
+    <col min="16" max="17" width="9.57142857142857"/>
     <col min="43" max="44" width="9.57142857142857"/>
     <col min="64" max="64" width="11.1428571428571" customWidth="1"/>
   </cols>
@@ -11501,7 +11501,7 @@
       <c r="BP3" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="BQ3" s="41" t="s">
+      <c r="BQ3" s="42" t="s">
         <v>102</v>
       </c>
       <c r="BR3" s="18" t="s">
@@ -11522,7 +11522,7 @@
       <c r="BW3" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="BX3" s="41" t="s">
+      <c r="BX3" s="42" t="s">
         <v>102</v>
       </c>
       <c r="BY3" s="22" t="s">
@@ -11534,7 +11534,7 @@
       <c r="CA3" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="CB3" s="41" t="s">
+      <c r="CB3" s="42" t="s">
         <v>102</v>
       </c>
       <c r="CC3" s="14" t="s">
@@ -11594,8 +11594,10 @@
       <c r="P4" s="52">
         <v>2033.08</v>
       </c>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="38">
+      <c r="Q4" s="52">
+        <v>2000.16</v>
+      </c>
+      <c r="R4" s="39">
         <v>1963.43</v>
       </c>
       <c r="S4" s="2">
@@ -11649,7 +11651,7 @@
       <c r="AI4" s="71">
         <v>1925</v>
       </c>
-      <c r="AK4" s="41" t="s">
+      <c r="AK4" s="42" t="s">
         <v>9</v>
       </c>
       <c r="AL4" s="21">
@@ -11835,8 +11837,10 @@
       <c r="P5" s="52">
         <v>1048</v>
       </c>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="38">
+      <c r="Q5" s="52">
+        <v>1048</v>
+      </c>
+      <c r="R5" s="39">
         <v>1048</v>
       </c>
       <c r="S5" s="2">
@@ -11992,7 +11996,7 @@
       <c r="BS5" s="52">
         <v>275</v>
       </c>
-      <c r="BT5" s="38">
+      <c r="BT5" s="39">
         <v>275</v>
       </c>
       <c r="BU5" s="2">
@@ -12078,8 +12082,10 @@
       <c r="P6" s="52">
         <v>1144</v>
       </c>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="38">
+      <c r="Q6" s="52">
+        <v>1152</v>
+      </c>
+      <c r="R6" s="39">
         <v>1144</v>
       </c>
       <c r="S6" s="2">
@@ -12235,7 +12241,7 @@
       <c r="BS6" s="52">
         <v>319</v>
       </c>
-      <c r="BT6" s="38">
+      <c r="BT6" s="39">
         <v>319</v>
       </c>
       <c r="BU6" s="2">
@@ -12319,8 +12325,10 @@
       <c r="P7" s="52">
         <v>4160.05</v>
       </c>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="38">
+      <c r="Q7" s="52">
+        <v>4160.05</v>
+      </c>
+      <c r="R7" s="39">
         <v>4056.67</v>
       </c>
       <c r="S7" s="2">
@@ -12476,7 +12484,7 @@
       <c r="BS7" s="52">
         <v>480.48</v>
       </c>
-      <c r="BT7" s="38">
+      <c r="BT7" s="39">
         <v>480.48</v>
       </c>
       <c r="BU7" s="2">
@@ -12560,8 +12568,10 @@
       <c r="P8" s="52">
         <v>52825.73</v>
       </c>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="38">
+      <c r="Q8" s="52">
+        <v>52004.99</v>
+      </c>
+      <c r="R8" s="39">
         <v>51568.2</v>
       </c>
       <c r="S8" s="2">
@@ -12717,7 +12727,7 @@
       <c r="BS8" s="52">
         <v>13516.55</v>
       </c>
-      <c r="BT8" s="38">
+      <c r="BT8" s="39">
         <v>13393.83</v>
       </c>
       <c r="BU8" s="2">
@@ -12803,8 +12813,10 @@
       <c r="P9" s="52">
         <v>1637.31</v>
       </c>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="38">
+      <c r="Q9" s="52">
+        <v>1637.31</v>
+      </c>
+      <c r="R9" s="39">
         <v>1637.31</v>
       </c>
       <c r="S9" s="2">
@@ -12960,7 +12972,7 @@
       <c r="BS9" s="52">
         <v>224.88</v>
       </c>
-      <c r="BT9" s="38">
+      <c r="BT9" s="39">
         <v>224.88</v>
       </c>
       <c r="BU9" s="2">
@@ -13044,8 +13056,10 @@
       <c r="P10" s="52">
         <v>4080.8</v>
       </c>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="38">
+      <c r="Q10" s="52">
+        <v>4078.85</v>
+      </c>
+      <c r="R10" s="39">
         <v>4069.56</v>
       </c>
       <c r="S10" s="2">
@@ -13201,7 +13215,7 @@
       <c r="BS10" s="52">
         <v>1182.72</v>
       </c>
-      <c r="BT10" s="38">
+      <c r="BT10" s="39">
         <v>1196.27</v>
       </c>
       <c r="BU10" s="2">
@@ -13285,8 +13299,10 @@
       <c r="P11" s="52">
         <v>4833.89</v>
       </c>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="38">
+      <c r="Q11" s="52">
+        <v>4738.2</v>
+      </c>
+      <c r="R11" s="39">
         <v>4692.29</v>
       </c>
       <c r="S11" s="2">
@@ -13442,7 +13458,7 @@
       <c r="BS11" s="52">
         <v>1284.47</v>
       </c>
-      <c r="BT11" s="38">
+      <c r="BT11" s="39">
         <v>1284.47</v>
       </c>
       <c r="BU11" s="2">
@@ -13528,8 +13544,10 @@
       <c r="P12" s="52">
         <v>458</v>
       </c>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="38">
+      <c r="Q12" s="52">
+        <v>442</v>
+      </c>
+      <c r="R12" s="39">
         <v>435</v>
       </c>
       <c r="S12" s="2">
@@ -13685,7 +13703,7 @@
       <c r="BS12" s="52">
         <v>100</v>
       </c>
-      <c r="BT12" s="38">
+      <c r="BT12" s="39">
         <v>100</v>
       </c>
       <c r="BU12" s="2">
@@ -13769,8 +13787,10 @@
       <c r="P13" s="52">
         <v>288.64</v>
       </c>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="38">
+      <c r="Q13" s="52">
+        <v>288.64</v>
+      </c>
+      <c r="R13" s="39">
         <v>288.64</v>
       </c>
       <c r="S13" s="2">
@@ -13926,7 +13946,7 @@
       <c r="BS13" s="52">
         <v>77.04</v>
       </c>
-      <c r="BT13" s="38">
+      <c r="BT13" s="39">
         <v>77.04</v>
       </c>
       <c r="BU13" s="2">
@@ -14010,8 +14030,10 @@
       <c r="P14" s="52">
         <v>343.69</v>
       </c>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="38">
+      <c r="Q14" s="52">
+        <v>343.69</v>
+      </c>
+      <c r="R14" s="39">
         <v>343.35</v>
       </c>
       <c r="S14" s="2">
@@ -14167,7 +14189,7 @@
       <c r="BS14" s="52">
         <v>97.21</v>
       </c>
-      <c r="BT14" s="38">
+      <c r="BT14" s="39">
         <v>97.21</v>
       </c>
       <c r="BU14" s="2">
@@ -14251,8 +14273,10 @@
       <c r="P15" s="52">
         <v>439.61</v>
       </c>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="38">
+      <c r="Q15" s="52">
+        <v>433.87</v>
+      </c>
+      <c r="R15" s="39">
         <v>437.71</v>
       </c>
       <c r="S15" s="2">
@@ -14408,7 +14432,7 @@
       <c r="BS15" s="52">
         <v>141.31</v>
       </c>
-      <c r="BT15" s="38">
+      <c r="BT15" s="39">
         <v>141.31</v>
       </c>
       <c r="BU15" s="2">
@@ -14494,8 +14518,10 @@
       <c r="P16" s="52">
         <v>689</v>
       </c>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="38">
+      <c r="Q16" s="52">
+        <v>640</v>
+      </c>
+      <c r="R16" s="39">
         <v>564</v>
       </c>
       <c r="S16" s="2">
@@ -14651,7 +14677,7 @@
       <c r="BS16" s="52">
         <v>145</v>
       </c>
-      <c r="BT16" s="38">
+      <c r="BT16" s="39">
         <v>145</v>
       </c>
       <c r="BU16" s="2">
@@ -14735,8 +14761,10 @@
       <c r="P17" s="52">
         <v>1693.63</v>
       </c>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="38">
+      <c r="Q17" s="52">
+        <v>1676.51</v>
+      </c>
+      <c r="R17" s="39">
         <v>1668.14</v>
       </c>
       <c r="S17" s="2">
@@ -14892,7 +14920,7 @@
       <c r="BS17" s="52">
         <v>546.47</v>
       </c>
-      <c r="BT17" s="38">
+      <c r="BT17" s="39">
         <v>550.97</v>
       </c>
       <c r="BU17" s="2">
@@ -14980,8 +15008,10 @@
       <c r="P18" s="52">
         <v>640</v>
       </c>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="38">
+      <c r="Q18" s="52">
+        <v>640</v>
+      </c>
+      <c r="R18" s="39">
         <v>640</v>
       </c>
       <c r="S18" s="2">
@@ -15137,7 +15167,7 @@
       <c r="BS18" s="52">
         <v>145</v>
       </c>
-      <c r="BT18" s="38">
+      <c r="BT18" s="39">
         <v>145</v>
       </c>
       <c r="BU18" s="2">
@@ -15229,8 +15259,10 @@
       <c r="P19" s="52">
         <v>1657</v>
       </c>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="38">
+      <c r="Q19" s="52">
+        <v>1651</v>
+      </c>
+      <c r="R19" s="39">
         <v>1570</v>
       </c>
       <c r="S19" s="2">
@@ -15386,7 +15418,7 @@
       <c r="BS19" s="52">
         <v>224</v>
       </c>
-      <c r="BT19" s="38">
+      <c r="BT19" s="39">
         <v>181</v>
       </c>
       <c r="BU19" s="49">
@@ -15484,8 +15516,10 @@
       <c r="P20" s="52">
         <v>794</v>
       </c>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="38">
+      <c r="Q20" s="52">
+        <v>794</v>
+      </c>
+      <c r="R20" s="39">
         <v>794</v>
       </c>
       <c r="S20" s="2">
@@ -15641,7 +15675,7 @@
       <c r="BS20" s="52">
         <v>162</v>
       </c>
-      <c r="BT20" s="38">
+      <c r="BT20" s="39">
         <v>162</v>
       </c>
       <c r="BU20" s="2">
@@ -15739,8 +15773,10 @@
       <c r="P21" s="52">
         <v>3349</v>
       </c>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="38">
+      <c r="Q21" s="52">
+        <v>3332</v>
+      </c>
+      <c r="R21" s="39">
         <v>3221</v>
       </c>
       <c r="S21" s="2">
@@ -15794,7 +15830,7 @@
       <c r="AI21" s="72">
         <v>3135</v>
       </c>
-      <c r="AK21" s="41" t="s">
+      <c r="AK21" s="42" t="s">
         <v>32</v>
       </c>
       <c r="AL21" s="24">
@@ -15821,7 +15857,7 @@
       <c r="AS21" s="45">
         <v>1891</v>
       </c>
-      <c r="AT21" s="42">
+      <c r="AT21" s="43">
         <v>1691</v>
       </c>
       <c r="AU21" s="24">
@@ -15833,7 +15869,7 @@
       <c r="AW21" s="2">
         <v>1691</v>
       </c>
-      <c r="AX21" s="42">
+      <c r="AX21" s="43">
         <v>1691</v>
       </c>
       <c r="AY21" s="24">
@@ -15896,10 +15932,10 @@
       <c r="BS21" s="52">
         <v>655</v>
       </c>
-      <c r="BT21" s="38">
+      <c r="BT21" s="39">
         <v>655</v>
       </c>
-      <c r="BU21" s="42">
+      <c r="BU21" s="43">
         <v>558</v>
       </c>
       <c r="BV21" s="24">
@@ -15911,7 +15947,7 @@
       <c r="BX21" s="2">
         <v>558</v>
       </c>
-      <c r="BY21" s="42">
+      <c r="BY21" s="43">
         <v>582</v>
       </c>
       <c r="BZ21" s="24">
@@ -15994,8 +16030,10 @@
       <c r="P22" s="52">
         <v>39332.67</v>
       </c>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="38">
+      <c r="Q22" s="52">
+        <v>38761.5</v>
+      </c>
+      <c r="R22" s="39">
         <v>39179.53</v>
       </c>
       <c r="S22" s="2">
@@ -16076,7 +16114,7 @@
       <c r="AS22" s="45">
         <v>21413.97</v>
       </c>
-      <c r="AT22" s="42">
+      <c r="AT22" s="43">
         <v>23146.59</v>
       </c>
       <c r="AU22" s="24">
@@ -16088,7 +16126,7 @@
       <c r="AW22" s="2">
         <v>23160.51</v>
       </c>
-      <c r="AX22" s="42">
+      <c r="AX22" s="43">
         <v>26964.52</v>
       </c>
       <c r="AY22" s="24">
@@ -16151,10 +16189,10 @@
       <c r="BS22" s="52">
         <v>9999.86</v>
       </c>
-      <c r="BT22" s="38">
+      <c r="BT22" s="39">
         <v>10591.78</v>
       </c>
-      <c r="BU22" s="42">
+      <c r="BU22" s="43">
         <v>9818.95</v>
       </c>
       <c r="BV22" s="24">
@@ -16166,7 +16204,7 @@
       <c r="BX22" s="2">
         <v>9934.05</v>
       </c>
-      <c r="BY22" s="42">
+      <c r="BY22" s="43">
         <v>10082.97</v>
       </c>
       <c r="BZ22" s="24">
@@ -16249,8 +16287,10 @@
       <c r="P23" s="52">
         <v>8140</v>
       </c>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="38">
+      <c r="Q23" s="52">
+        <v>8203</v>
+      </c>
+      <c r="R23" s="39">
         <v>7989</v>
       </c>
       <c r="S23" s="2">
@@ -16331,7 +16371,7 @@
       <c r="AS23" s="45">
         <v>5977</v>
       </c>
-      <c r="AT23" s="42">
+      <c r="AT23" s="43">
         <v>5381</v>
       </c>
       <c r="AU23" s="24">
@@ -16343,7 +16383,7 @@
       <c r="AW23" s="2">
         <v>5412</v>
       </c>
-      <c r="AX23" s="42">
+      <c r="AX23" s="43">
         <v>6289</v>
       </c>
       <c r="AY23" s="24">
@@ -16406,10 +16446,10 @@
       <c r="BS23" s="52">
         <v>3454</v>
       </c>
-      <c r="BT23" s="38">
+      <c r="BT23" s="39">
         <v>3454</v>
       </c>
-      <c r="BU23" s="42">
+      <c r="BU23" s="43">
         <v>3155</v>
       </c>
       <c r="BV23" s="24">
@@ -16421,7 +16461,7 @@
       <c r="BX23" s="2">
         <v>2884</v>
       </c>
-      <c r="BY23" s="42">
+      <c r="BY23" s="43">
         <v>3155</v>
       </c>
       <c r="BZ23" s="24">
@@ -16502,8 +16542,10 @@
       <c r="P24" s="52">
         <v>17365.3</v>
       </c>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="38">
+      <c r="Q24" s="52">
+        <v>17001.37</v>
+      </c>
+      <c r="R24" s="39">
         <v>15424.61</v>
       </c>
       <c r="S24" s="2">
@@ -16584,7 +16626,7 @@
       <c r="AS24" s="45">
         <v>10635.6</v>
       </c>
-      <c r="AT24" s="42">
+      <c r="AT24" s="43">
         <v>10171.17</v>
       </c>
       <c r="AU24" s="24">
@@ -16596,7 +16638,7 @@
       <c r="AW24" s="2">
         <v>9795.47</v>
       </c>
-      <c r="AX24" s="42">
+      <c r="AX24" s="43">
         <v>10444.9</v>
       </c>
       <c r="AY24" s="24">
@@ -16659,10 +16701,10 @@
       <c r="BS24" s="52">
         <v>4885.92</v>
       </c>
-      <c r="BT24" s="38">
+      <c r="BT24" s="39">
         <v>4865.02</v>
       </c>
-      <c r="BU24" s="42">
+      <c r="BU24" s="43">
         <v>4792.31</v>
       </c>
       <c r="BV24" s="24">
@@ -16674,7 +16716,7 @@
       <c r="BX24" s="2">
         <v>4492.73</v>
       </c>
-      <c r="BY24" s="42">
+      <c r="BY24" s="43">
         <v>4788.84</v>
       </c>
       <c r="BZ24" s="24">
@@ -16721,7 +16763,7 @@
       <c r="C25" s="1"/>
       <c r="D25" s="11">
         <f>Q49+AR49+BS49</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E25" s="60" t="s">
         <v>19</v>
@@ -16755,8 +16797,10 @@
       <c r="P25" s="52">
         <v>21761</v>
       </c>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="38">
+      <c r="Q25" s="52">
+        <v>20282.34</v>
+      </c>
+      <c r="R25" s="39">
         <v>20003.57</v>
       </c>
       <c r="S25" s="2">
@@ -16837,7 +16881,7 @@
       <c r="AS25" s="45">
         <v>14147.15</v>
       </c>
-      <c r="AT25" s="42">
+      <c r="AT25" s="43">
         <v>15194.75</v>
       </c>
       <c r="AU25" s="24">
@@ -16849,7 +16893,7 @@
       <c r="AW25" s="2">
         <v>15235.59</v>
       </c>
-      <c r="AX25" s="42">
+      <c r="AX25" s="43">
         <v>13836.8</v>
       </c>
       <c r="AY25" s="24">
@@ -16912,10 +16956,10 @@
       <c r="BS25" s="52">
         <v>6400.64</v>
       </c>
-      <c r="BT25" s="38">
+      <c r="BT25" s="39">
         <v>6400.64</v>
       </c>
-      <c r="BU25" s="42">
+      <c r="BU25" s="43">
         <v>7646.9</v>
       </c>
       <c r="BV25" s="24">
@@ -16927,7 +16971,7 @@
       <c r="BX25" s="2">
         <v>7429.09</v>
       </c>
-      <c r="BY25" s="42">
+      <c r="BY25" s="43">
         <v>7646.9</v>
       </c>
       <c r="BZ25" s="24">
@@ -17008,8 +17052,10 @@
       <c r="P26" s="52">
         <v>20906.25</v>
       </c>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="38">
+      <c r="Q26" s="52">
+        <v>20925.83</v>
+      </c>
+      <c r="R26" s="39">
         <v>20815.59</v>
       </c>
       <c r="S26" s="2">
@@ -17090,7 +17136,7 @@
       <c r="AS26" s="45">
         <v>13369.49</v>
       </c>
-      <c r="AT26" s="42">
+      <c r="AT26" s="43">
         <v>15518.81</v>
       </c>
       <c r="AU26" s="24">
@@ -17102,7 +17148,7 @@
       <c r="AW26" s="2">
         <v>15796.78</v>
       </c>
-      <c r="AX26" s="42">
+      <c r="AX26" s="43">
         <v>15428.8</v>
       </c>
       <c r="AY26" s="24">
@@ -17165,10 +17211,10 @@
       <c r="BS26" s="52">
         <v>6863.81</v>
       </c>
-      <c r="BT26" s="38">
+      <c r="BT26" s="39">
         <v>6863.81</v>
       </c>
-      <c r="BU26" s="42">
+      <c r="BU26" s="43">
         <v>6772.97</v>
       </c>
       <c r="BV26" s="24">
@@ -17180,7 +17226,7 @@
       <c r="BX26" s="2">
         <v>6899.46</v>
       </c>
-      <c r="BY26" s="42">
+      <c r="BY26" s="43">
         <v>6741.11</v>
       </c>
       <c r="BZ26" s="24">
@@ -17249,8 +17295,10 @@
       <c r="P27" s="52">
         <v>15998.15</v>
       </c>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="38">
+      <c r="Q27" s="52">
+        <v>15959.77</v>
+      </c>
+      <c r="R27" s="39">
         <v>15959.77</v>
       </c>
       <c r="S27" s="2">
@@ -17331,7 +17379,7 @@
       <c r="AS27" s="45">
         <v>11113.03</v>
       </c>
-      <c r="AT27" s="42">
+      <c r="AT27" s="43">
         <v>11529.81</v>
       </c>
       <c r="AU27" s="24">
@@ -17343,7 +17391,7 @@
       <c r="AW27" s="2">
         <v>11768</v>
       </c>
-      <c r="AX27" s="42">
+      <c r="AX27" s="43">
         <v>10913.61</v>
       </c>
       <c r="AY27" s="24">
@@ -17406,10 +17454,10 @@
       <c r="BS27" s="52">
         <v>5474.72</v>
       </c>
-      <c r="BT27" s="38">
+      <c r="BT27" s="39">
         <v>5474.72</v>
       </c>
-      <c r="BU27" s="42">
+      <c r="BU27" s="43">
         <v>4469.81</v>
       </c>
       <c r="BV27" s="24">
@@ -17421,7 +17469,7 @@
       <c r="BX27" s="2">
         <v>4405.8</v>
       </c>
-      <c r="BY27" s="42">
+      <c r="BY27" s="43">
         <v>5384.91</v>
       </c>
       <c r="BZ27" s="24">
@@ -17490,8 +17538,10 @@
       <c r="P28" s="52">
         <v>17272.09</v>
       </c>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="38">
+      <c r="Q28" s="52">
+        <v>17157.39</v>
+      </c>
+      <c r="R28" s="39">
         <v>17073.31</v>
       </c>
       <c r="S28" s="2">
@@ -17572,7 +17622,7 @@
       <c r="AS28" s="45">
         <v>11462.88</v>
       </c>
-      <c r="AT28" s="42">
+      <c r="AT28" s="43">
         <v>13325.39</v>
       </c>
       <c r="AU28" s="24">
@@ -17584,7 +17634,7 @@
       <c r="AW28" s="2">
         <v>13373.56</v>
       </c>
-      <c r="AX28" s="42">
+      <c r="AX28" s="43">
         <v>11828.96</v>
       </c>
       <c r="AY28" s="24">
@@ -17647,10 +17697,10 @@
       <c r="BS28" s="52">
         <v>5053.72</v>
       </c>
-      <c r="BT28" s="38">
+      <c r="BT28" s="39">
         <v>5053.72</v>
       </c>
-      <c r="BU28" s="42">
+      <c r="BU28" s="43">
         <v>5396.33</v>
       </c>
       <c r="BV28" s="24">
@@ -17662,7 +17712,7 @@
       <c r="BX28" s="2">
         <v>5281.26</v>
       </c>
-      <c r="BY28" s="42">
+      <c r="BY28" s="43">
         <v>5396.33</v>
       </c>
       <c r="BZ28" s="24">
@@ -17733,8 +17783,10 @@
       <c r="P29" s="52">
         <v>22374.47</v>
       </c>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="38">
+      <c r="Q29" s="52">
+        <v>21705.05</v>
+      </c>
+      <c r="R29" s="39">
         <v>21326.7</v>
       </c>
       <c r="S29" s="2">
@@ -17815,7 +17867,7 @@
       <c r="AS29" s="45">
         <v>15093.27</v>
       </c>
-      <c r="AT29" s="42">
+      <c r="AT29" s="43">
         <v>17045.05</v>
       </c>
       <c r="AU29" s="24">
@@ -17827,7 +17879,7 @@
       <c r="AW29" s="2">
         <v>17120.65</v>
       </c>
-      <c r="AX29" s="42">
+      <c r="AX29" s="43">
         <v>15996.61</v>
       </c>
       <c r="AY29" s="24">
@@ -17890,10 +17942,10 @@
       <c r="BS29" s="52">
         <v>6604.98</v>
       </c>
-      <c r="BT29" s="38">
+      <c r="BT29" s="39">
         <v>6556.11</v>
       </c>
-      <c r="BU29" s="42">
+      <c r="BU29" s="43">
         <v>8301.6</v>
       </c>
       <c r="BV29" s="24">
@@ -17905,7 +17957,7 @@
       <c r="BX29" s="2">
         <v>7915.92</v>
       </c>
-      <c r="BY29" s="42">
+      <c r="BY29" s="43">
         <v>7231.98</v>
       </c>
       <c r="BZ29" s="24">
@@ -17974,8 +18026,10 @@
       <c r="P30" s="52">
         <v>14415.86</v>
       </c>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="38">
+      <c r="Q30" s="52">
+        <v>14366.64</v>
+      </c>
+      <c r="R30" s="39">
         <v>14415.86</v>
       </c>
       <c r="S30" s="2">
@@ -18056,7 +18110,7 @@
       <c r="AS30" s="45">
         <v>9164.18</v>
       </c>
-      <c r="AT30" s="42">
+      <c r="AT30" s="43">
         <v>11703.58</v>
       </c>
       <c r="AU30" s="24">
@@ -18068,7 +18122,7 @@
       <c r="AW30" s="2">
         <v>12035.93</v>
       </c>
-      <c r="AX30" s="42">
+      <c r="AX30" s="43">
         <v>10824.74</v>
       </c>
       <c r="AY30" s="24">
@@ -18131,10 +18185,10 @@
       <c r="BS30" s="52">
         <v>4310.71</v>
       </c>
-      <c r="BT30" s="38">
+      <c r="BT30" s="39">
         <v>4310.71</v>
       </c>
-      <c r="BU30" s="42">
+      <c r="BU30" s="43">
         <v>5853.33</v>
       </c>
       <c r="BV30" s="24">
@@ -18146,7 +18200,7 @@
       <c r="BX30" s="2">
         <v>5811.52</v>
       </c>
-      <c r="BY30" s="42">
+      <c r="BY30" s="43">
         <v>4293.02</v>
       </c>
       <c r="BZ30" s="24">
@@ -18219,8 +18273,10 @@
       <c r="P31" s="52">
         <v>15472.1</v>
       </c>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="38">
+      <c r="Q31" s="52">
+        <v>15422.42</v>
+      </c>
+      <c r="R31" s="39">
         <v>14779.43</v>
       </c>
       <c r="S31" s="2">
@@ -18301,7 +18357,7 @@
       <c r="AS31" s="45">
         <v>10205.07</v>
       </c>
-      <c r="AT31" s="42">
+      <c r="AT31" s="43">
         <v>11197.73</v>
       </c>
       <c r="AU31" s="24">
@@ -18313,7 +18369,7 @@
       <c r="AW31" s="2">
         <v>11092.2</v>
       </c>
-      <c r="AX31" s="42">
+      <c r="AX31" s="43">
         <v>11197.73</v>
       </c>
       <c r="AY31" s="24">
@@ -18376,10 +18432,10 @@
       <c r="BS31" s="52">
         <v>5220.64</v>
       </c>
-      <c r="BT31" s="38">
+      <c r="BT31" s="39">
         <v>5220.64</v>
       </c>
-      <c r="BU31" s="42">
+      <c r="BU31" s="43">
         <v>5246.28</v>
       </c>
       <c r="BV31" s="24">
@@ -18391,7 +18447,7 @@
       <c r="BX31" s="2">
         <v>5220.64</v>
       </c>
-      <c r="BY31" s="42">
+      <c r="BY31" s="43">
         <v>5246.28</v>
       </c>
       <c r="BZ31" s="24">
@@ -18468,8 +18524,10 @@
       <c r="P32" s="52">
         <v>16099.41</v>
       </c>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="38">
+      <c r="Q32" s="52">
+        <v>16078.26</v>
+      </c>
+      <c r="R32" s="39">
         <v>15758.39</v>
       </c>
       <c r="S32" s="2">
@@ -18550,7 +18608,7 @@
       <c r="AS32" s="45">
         <v>9687.27</v>
       </c>
-      <c r="AT32" s="42">
+      <c r="AT32" s="43">
         <v>10160.41</v>
       </c>
       <c r="AU32" s="24">
@@ -18562,7 +18620,7 @@
       <c r="AW32" s="2">
         <v>9535.85</v>
       </c>
-      <c r="AX32" s="42">
+      <c r="AX32" s="43">
         <v>9449.58</v>
       </c>
       <c r="AY32" s="24">
@@ -18625,10 +18683,10 @@
       <c r="BS32" s="52">
         <v>3984.43</v>
       </c>
-      <c r="BT32" s="38">
+      <c r="BT32" s="39">
         <v>3984.43</v>
       </c>
-      <c r="BU32" s="42">
+      <c r="BU32" s="43">
         <v>3842.76</v>
       </c>
       <c r="BV32" s="24">
@@ -18640,7 +18698,7 @@
       <c r="BX32" s="2">
         <v>3842.76</v>
       </c>
-      <c r="BY32" s="42">
+      <c r="BY32" s="43">
         <v>3919.58</v>
       </c>
       <c r="BZ32" s="24">
@@ -18723,8 +18781,10 @@
       <c r="P33" s="52">
         <v>8694.41</v>
       </c>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="38">
+      <c r="Q33" s="52">
+        <v>8652.13</v>
+      </c>
+      <c r="R33" s="39">
         <v>8524.62</v>
       </c>
       <c r="S33" s="2">
@@ -18805,7 +18865,7 @@
       <c r="AS33" s="45">
         <v>5538.45</v>
       </c>
-      <c r="AT33" s="42">
+      <c r="AT33" s="43">
         <v>5290</v>
       </c>
       <c r="AU33" s="24">
@@ -18817,7 +18877,7 @@
       <c r="AW33" s="2">
         <v>5350.1</v>
       </c>
-      <c r="AX33" s="42">
+      <c r="AX33" s="43">
         <v>5838.62</v>
       </c>
       <c r="AY33" s="24">
@@ -18880,10 +18940,10 @@
       <c r="BS33" s="52">
         <v>2043.71</v>
       </c>
-      <c r="BT33" s="38">
+      <c r="BT33" s="39">
         <v>2043.71</v>
       </c>
-      <c r="BU33" s="42">
+      <c r="BU33" s="43">
         <v>2067.87</v>
       </c>
       <c r="BV33" s="24">
@@ -18895,7 +18955,7 @@
       <c r="BX33" s="2">
         <v>2067.87</v>
       </c>
-      <c r="BY33" s="42">
+      <c r="BY33" s="43">
         <v>2002.98</v>
       </c>
       <c r="BZ33" s="24">
@@ -18978,8 +19038,10 @@
       <c r="P34" s="52">
         <v>31966.35</v>
       </c>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="38">
+      <c r="Q34" s="52">
+        <v>31131.1</v>
+      </c>
+      <c r="R34" s="39">
         <v>29868.93</v>
       </c>
       <c r="S34" s="2">
@@ -19060,7 +19122,7 @@
       <c r="AS34" s="45">
         <v>20553.81</v>
       </c>
-      <c r="AT34" s="42">
+      <c r="AT34" s="43">
         <v>20659.25</v>
       </c>
       <c r="AU34" s="24">
@@ -19072,7 +19134,7 @@
       <c r="AW34" s="2">
         <v>20562.68</v>
       </c>
-      <c r="AX34" s="42">
+      <c r="AX34" s="43">
         <v>21122.47</v>
       </c>
       <c r="AY34" s="24">
@@ -19135,10 +19197,10 @@
       <c r="BS34" s="52">
         <v>8726.42</v>
       </c>
-      <c r="BT34" s="38">
+      <c r="BT34" s="39">
         <v>8731.34</v>
       </c>
-      <c r="BU34" s="42">
+      <c r="BU34" s="43">
         <v>9230.75</v>
       </c>
       <c r="BV34" s="24">
@@ -19150,7 +19212,7 @@
       <c r="BX34" s="2">
         <v>9131.48</v>
       </c>
-      <c r="BY34" s="42">
+      <c r="BY34" s="43">
         <v>9406.35</v>
       </c>
       <c r="BZ34" s="24">
@@ -19233,8 +19295,10 @@
       <c r="P35" s="52">
         <v>62483.34</v>
       </c>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="38">
+      <c r="Q35" s="52">
+        <v>62372.47</v>
+      </c>
+      <c r="R35" s="39">
         <v>61124.81</v>
       </c>
       <c r="S35" s="2">
@@ -19288,7 +19352,7 @@
       <c r="AI35" s="72">
         <v>62262</v>
       </c>
-      <c r="AK35" s="41" t="s">
+      <c r="AK35" s="42" t="s">
         <v>49</v>
       </c>
       <c r="AL35" s="21">
@@ -19372,10 +19436,10 @@
       <c r="BM35" s="24">
         <v>19</v>
       </c>
-      <c r="BN35" s="41">
+      <c r="BN35" s="42">
         <v>25126.84</v>
       </c>
-      <c r="BO35" s="41">
+      <c r="BO35" s="42">
         <v>25126.84</v>
       </c>
       <c r="BP35" s="47">
@@ -19390,10 +19454,10 @@
       <c r="BS35" s="52">
         <v>23589.53</v>
       </c>
-      <c r="BT35" s="38">
+      <c r="BT35" s="39">
         <v>23589.53</v>
       </c>
-      <c r="BU35" s="42">
+      <c r="BU35" s="43">
         <v>25126.84</v>
       </c>
       <c r="BV35" s="24">
@@ -19405,7 +19469,7 @@
       <c r="BX35" s="2">
         <v>23589.53</v>
       </c>
-      <c r="BY35" s="42">
+      <c r="BY35" s="43">
         <v>25126.84</v>
       </c>
       <c r="BZ35" s="24">
@@ -19488,8 +19552,10 @@
       <c r="P36" s="52">
         <v>31934.72</v>
       </c>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="38">
+      <c r="Q36" s="52">
+        <v>31377.82</v>
+      </c>
+      <c r="R36" s="39">
         <v>30005.9</v>
       </c>
       <c r="S36" s="2">
@@ -19645,10 +19711,10 @@
       <c r="BS36" s="52">
         <v>7234.89</v>
       </c>
-      <c r="BT36" s="38">
+      <c r="BT36" s="39">
         <v>7203.74</v>
       </c>
-      <c r="BU36" s="42">
+      <c r="BU36" s="43">
         <v>7165.83</v>
       </c>
       <c r="BV36" s="24">
@@ -19660,7 +19726,7 @@
       <c r="BX36" s="2">
         <v>7379.46</v>
       </c>
-      <c r="BY36" s="42">
+      <c r="BY36" s="43">
         <v>7537.29</v>
       </c>
       <c r="BZ36" s="24">
@@ -19740,8 +19806,10 @@
       <c r="P37" s="52">
         <v>37381.25</v>
       </c>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="38">
+      <c r="Q37" s="52">
+        <v>37357.65</v>
+      </c>
+      <c r="R37" s="39">
         <v>37384.06</v>
       </c>
       <c r="S37" s="2">
@@ -19897,10 +19965,10 @@
       <c r="BS37" s="52">
         <v>10150.54</v>
       </c>
-      <c r="BT37" s="38">
+      <c r="BT37" s="39">
         <v>10150.54</v>
       </c>
-      <c r="BU37" s="42">
+      <c r="BU37" s="43">
         <v>14065.44</v>
       </c>
       <c r="BV37" s="24">
@@ -19912,7 +19980,7 @@
       <c r="BX37" s="2">
         <v>12877.05</v>
       </c>
-      <c r="BY37" s="42">
+      <c r="BY37" s="43">
         <v>14065.44</v>
       </c>
       <c r="BZ37" s="24">
@@ -19959,7 +20027,7 @@
       <c r="C38" s="1"/>
       <c r="D38" s="11">
         <f>Q48+AR48+BS48</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E38" s="60" t="s">
         <v>19</v>
@@ -19992,8 +20060,10 @@
       <c r="P38" s="52">
         <v>77341.66</v>
       </c>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="38">
+      <c r="Q38" s="52">
+        <v>71885.89</v>
+      </c>
+      <c r="R38" s="39">
         <v>71134.44</v>
       </c>
       <c r="S38" s="2">
@@ -20149,10 +20219,10 @@
       <c r="BS38" s="52">
         <v>22016.47</v>
       </c>
-      <c r="BT38" s="38">
+      <c r="BT38" s="39">
         <v>21434.77</v>
       </c>
-      <c r="BU38" s="42">
+      <c r="BU38" s="43">
         <v>23341.46</v>
       </c>
       <c r="BV38" s="24">
@@ -20164,7 +20234,7 @@
       <c r="BX38" s="2">
         <v>23907.89</v>
       </c>
-      <c r="BY38" s="42">
+      <c r="BY38" s="43">
         <v>23147.12</v>
       </c>
       <c r="BZ38" s="24">
@@ -20244,8 +20314,10 @@
       <c r="P39" s="52">
         <v>40742.95</v>
       </c>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="38">
+      <c r="Q39" s="52">
+        <v>40491.29</v>
+      </c>
+      <c r="R39" s="39">
         <v>40732.59</v>
       </c>
       <c r="S39" s="2">
@@ -20401,10 +20473,10 @@
       <c r="BS39" s="52">
         <v>10742.86</v>
       </c>
-      <c r="BT39" s="38">
+      <c r="BT39" s="39">
         <v>10778.34</v>
       </c>
-      <c r="BU39" s="42">
+      <c r="BU39" s="43">
         <v>12001.03</v>
       </c>
       <c r="BV39" s="24">
@@ -20416,7 +20488,7 @@
       <c r="BX39" s="2">
         <v>12001.03</v>
       </c>
-      <c r="BY39" s="42">
+      <c r="BY39" s="43">
         <v>11480.73</v>
       </c>
       <c r="BZ39" s="24">
@@ -20478,8 +20550,10 @@
       <c r="P40" s="52">
         <v>48977.97</v>
       </c>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="38">
+      <c r="Q40" s="52">
+        <v>46542.14</v>
+      </c>
+      <c r="R40" s="39">
         <v>46440.38</v>
       </c>
       <c r="S40" s="2">
@@ -20635,10 +20709,10 @@
       <c r="BS40" s="52">
         <v>15420.29</v>
       </c>
-      <c r="BT40" s="38">
+      <c r="BT40" s="39">
         <v>15420.29</v>
       </c>
-      <c r="BU40" s="42">
+      <c r="BU40" s="43">
         <v>15403.26</v>
       </c>
       <c r="BV40" s="24">
@@ -20650,7 +20724,7 @@
       <c r="BX40" s="2">
         <v>16537.99</v>
       </c>
-      <c r="BY40" s="42">
+      <c r="BY40" s="43">
         <v>15403.26</v>
       </c>
       <c r="BZ40" s="24">
@@ -20720,8 +20794,10 @@
       <c r="P41" s="52">
         <v>56683.88</v>
       </c>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="38">
+      <c r="Q41" s="52">
+        <v>54352.23</v>
+      </c>
+      <c r="R41" s="39">
         <v>52900.33</v>
       </c>
       <c r="S41" s="2">
@@ -20877,10 +20953,10 @@
       <c r="BS41" s="52">
         <v>22144.61</v>
       </c>
-      <c r="BT41" s="38">
+      <c r="BT41" s="39">
         <v>21400.94</v>
       </c>
-      <c r="BU41" s="42">
+      <c r="BU41" s="43">
         <v>23231.19</v>
       </c>
       <c r="BV41" s="24">
@@ -20892,7 +20968,7 @@
       <c r="BX41" s="2">
         <v>23248.9</v>
       </c>
-      <c r="BY41" s="42">
+      <c r="BY41" s="43">
         <v>23231.19</v>
       </c>
       <c r="BZ41" s="24">
@@ -20960,8 +21036,10 @@
       <c r="P42" s="52">
         <v>891.6</v>
       </c>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="38">
+      <c r="Q42" s="52">
+        <v>899.83</v>
+      </c>
+      <c r="R42" s="39">
         <v>878.76</v>
       </c>
       <c r="S42" s="2">
@@ -21117,10 +21195,10 @@
       <c r="BS42" s="52">
         <v>255.03</v>
       </c>
-      <c r="BT42" s="38">
+      <c r="BT42" s="39">
         <v>255.03</v>
       </c>
-      <c r="BU42" s="42">
+      <c r="BU42" s="43">
         <v>323.19</v>
       </c>
       <c r="BV42" s="24">
@@ -21132,7 +21210,7 @@
       <c r="BX42" s="2">
         <v>341.87</v>
       </c>
-      <c r="BY42" s="42">
+      <c r="BY42" s="43">
         <v>292.55</v>
       </c>
       <c r="BZ42" s="24">
@@ -21204,8 +21282,10 @@
       <c r="P43" s="52">
         <v>1695.28</v>
       </c>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="38">
+      <c r="Q43" s="52">
+        <v>1693.85</v>
+      </c>
+      <c r="R43" s="39">
         <v>1685.13</v>
       </c>
       <c r="S43" s="2">
@@ -21361,10 +21441,10 @@
       <c r="BS43" s="52">
         <v>557.62</v>
       </c>
-      <c r="BT43" s="38">
+      <c r="BT43" s="39">
         <v>552.93</v>
       </c>
-      <c r="BU43" s="42">
+      <c r="BU43" s="43">
         <v>593.08</v>
       </c>
       <c r="BV43" s="24">
@@ -21376,7 +21456,7 @@
       <c r="BX43" s="2">
         <v>594.47</v>
       </c>
-      <c r="BY43" s="42">
+      <c r="BY43" s="43">
         <v>546.13</v>
       </c>
       <c r="BZ43" s="24">
@@ -21452,8 +21532,10 @@
       <c r="P44" s="52">
         <v>496.68</v>
       </c>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="38">
+      <c r="Q44" s="52">
+        <v>494.91</v>
+      </c>
+      <c r="R44" s="39">
         <v>473.66</v>
       </c>
       <c r="S44" s="2">
@@ -21609,10 +21691,10 @@
       <c r="BS44" s="52">
         <v>126.31</v>
       </c>
-      <c r="BT44" s="38">
+      <c r="BT44" s="39">
         <v>126.31</v>
       </c>
-      <c r="BU44" s="42">
+      <c r="BU44" s="43">
         <v>127.18</v>
       </c>
       <c r="BV44" s="24">
@@ -21624,7 +21706,7 @@
       <c r="BX44" s="2">
         <v>119.95</v>
       </c>
-      <c r="BY44" s="42">
+      <c r="BY44" s="43">
         <v>127.18</v>
       </c>
       <c r="BZ44" s="24">
@@ -21706,8 +21788,10 @@
       <c r="P45" s="52">
         <v>732</v>
       </c>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="38">
+      <c r="Q45" s="52">
+        <v>720</v>
+      </c>
+      <c r="R45" s="39">
         <v>732</v>
       </c>
       <c r="S45" s="2">
@@ -21863,10 +21947,10 @@
       <c r="BS45" s="52">
         <v>146</v>
       </c>
-      <c r="BT45" s="38">
+      <c r="BT45" s="39">
         <v>146</v>
       </c>
-      <c r="BU45" s="42">
+      <c r="BU45" s="43">
         <v>146</v>
       </c>
       <c r="BV45" s="24">
@@ -21878,7 +21962,7 @@
       <c r="BX45" s="2">
         <v>146</v>
       </c>
-      <c r="BY45" s="42">
+      <c r="BY45" s="43">
         <v>146</v>
       </c>
       <c r="BZ45" s="24">
@@ -21960,8 +22044,10 @@
       <c r="P46" s="52">
         <v>2741.1</v>
       </c>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="38">
+      <c r="Q46" s="52">
+        <v>2741.1</v>
+      </c>
+      <c r="R46" s="39">
         <v>2741.1</v>
       </c>
       <c r="S46" s="2">
@@ -22117,10 +22203,10 @@
       <c r="BS46" s="52">
         <v>751.06</v>
       </c>
-      <c r="BT46" s="38">
+      <c r="BT46" s="39">
         <v>751.06</v>
       </c>
-      <c r="BU46" s="42">
+      <c r="BU46" s="43">
         <v>751.06</v>
       </c>
       <c r="BV46" s="24">
@@ -22132,7 +22218,7 @@
       <c r="BX46" s="2">
         <v>751.06</v>
       </c>
-      <c r="BY46" s="42">
+      <c r="BY46" s="43">
         <v>751.06</v>
       </c>
       <c r="BZ46" s="24">
@@ -22214,7 +22300,9 @@
       <c r="P47" s="61">
         <v>3019.75</v>
       </c>
-      <c r="Q47" s="49"/>
+      <c r="Q47" s="52">
+        <v>3019.75</v>
+      </c>
       <c r="R47" s="66">
         <v>3019.75</v>
       </c>
@@ -22466,7 +22554,9 @@
       <c r="P48" s="63">
         <v>1</v>
       </c>
-      <c r="Q48" s="63"/>
+      <c r="Q48" s="63">
+        <v>1</v>
+      </c>
       <c r="R48" s="63">
         <v>4</v>
       </c>
@@ -22702,7 +22792,9 @@
       <c r="P49" s="63">
         <v>4</v>
       </c>
-      <c r="Q49" s="63"/>
+      <c r="Q49" s="63">
+        <v>6</v>
+      </c>
       <c r="R49" s="63">
         <v>7</v>
       </c>
@@ -22905,7 +22997,7 @@
       <c r="C50" s="1"/>
       <c r="D50" s="11">
         <f>D38+D25</f>
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E50" s="11" t="e">
         <f>E38+E25</f>
@@ -25180,12 +25272,12 @@
       </c>
       <c r="Y4" s="22"/>
       <c r="Z4" s="26"/>
-      <c r="AA4" s="37" t="s">
+      <c r="AA4" s="38" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="3:27">
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="42" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="47" t="s">
@@ -25254,10 +25346,10 @@
       <c r="Y5" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="Z5" s="36" t="s">
+      <c r="Z5" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="AA5" s="37"/>
+      <c r="AA5" s="38"/>
     </row>
     <row r="6" ht="15.75" spans="3:27">
       <c r="C6" s="24" t="s">
@@ -25332,7 +25424,7 @@
       <c r="Z6" s="45">
         <v>609.06</v>
       </c>
-      <c r="AA6" s="39">
+      <c r="AA6" s="40">
         <f>SMALL(E6:Z6,1)</f>
         <v>609.06</v>
       </c>
@@ -25410,7 +25502,7 @@
       <c r="Z7" s="45">
         <v>1354</v>
       </c>
-      <c r="AA7" s="39">
+      <c r="AA7" s="40">
         <f t="shared" ref="AA7:AA38" si="0">SMALL(E7:Z7,1)</f>
         <v>1193</v>
       </c>
@@ -25488,7 +25580,7 @@
       <c r="Z8" s="45">
         <v>5455</v>
       </c>
-      <c r="AA8" s="39">
+      <c r="AA8" s="40">
         <f t="shared" si="0"/>
         <v>4172</v>
       </c>
@@ -25566,7 +25658,7 @@
       <c r="Z9" s="45">
         <v>275</v>
       </c>
-      <c r="AA9" s="39">
+      <c r="AA9" s="40">
         <f t="shared" si="0"/>
         <v>275</v>
       </c>
@@ -25644,7 +25736,7 @@
       <c r="Z10" s="45">
         <v>319</v>
       </c>
-      <c r="AA10" s="39">
+      <c r="AA10" s="40">
         <f t="shared" si="0"/>
         <v>319</v>
       </c>
@@ -25722,7 +25814,7 @@
       <c r="Z11" s="45">
         <v>480.48</v>
       </c>
-      <c r="AA11" s="39">
+      <c r="AA11" s="40">
         <f t="shared" si="0"/>
         <v>456.38</v>
       </c>
@@ -25800,7 +25892,7 @@
       <c r="Z12" s="45">
         <v>13393.83</v>
       </c>
-      <c r="AA12" s="39">
+      <c r="AA12" s="40">
         <f t="shared" si="0"/>
         <v>11245.08</v>
       </c>
@@ -25878,7 +25970,7 @@
       <c r="Z13" s="45">
         <v>4607</v>
       </c>
-      <c r="AA13" s="39">
+      <c r="AA13" s="40">
         <f t="shared" si="0"/>
         <v>4161</v>
       </c>
@@ -25956,7 +26048,7 @@
       <c r="Z14" s="45">
         <v>470</v>
       </c>
-      <c r="AA14" s="39">
+      <c r="AA14" s="40">
         <f t="shared" si="0"/>
         <v>470</v>
       </c>
@@ -26034,7 +26126,7 @@
       <c r="Z15" s="45">
         <v>224.88</v>
       </c>
-      <c r="AA15" s="39">
+      <c r="AA15" s="40">
         <f t="shared" si="0"/>
         <v>224.88</v>
       </c>
@@ -26112,7 +26204,7 @@
       <c r="Z16" s="45">
         <v>1196.27</v>
       </c>
-      <c r="AA16" s="39">
+      <c r="AA16" s="40">
         <f t="shared" si="0"/>
         <v>1154.49</v>
       </c>
@@ -26190,7 +26282,7 @@
       <c r="Z17" s="45">
         <v>1284.47</v>
       </c>
-      <c r="AA17" s="39">
+      <c r="AA17" s="40">
         <f t="shared" si="0"/>
         <v>1245.96</v>
       </c>
@@ -26268,7 +26360,7 @@
       <c r="Z18" s="45">
         <v>100</v>
       </c>
-      <c r="AA18" s="39">
+      <c r="AA18" s="40">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -26346,7 +26438,7 @@
       <c r="Z19" s="45">
         <v>77.04</v>
       </c>
-      <c r="AA19" s="39">
+      <c r="AA19" s="40">
         <f t="shared" si="0"/>
         <v>69.08</v>
       </c>
@@ -26424,7 +26516,7 @@
       <c r="Z20" s="45">
         <v>97.21</v>
       </c>
-      <c r="AA20" s="39">
+      <c r="AA20" s="40">
         <f t="shared" si="0"/>
         <v>97.21</v>
       </c>
@@ -26502,7 +26594,7 @@
       <c r="Z21" s="45">
         <v>141.31</v>
       </c>
-      <c r="AA21" s="39">
+      <c r="AA21" s="40">
         <f t="shared" si="0"/>
         <v>118.57</v>
       </c>
@@ -26580,7 +26672,7 @@
       <c r="Z22" s="45">
         <v>145</v>
       </c>
-      <c r="AA22" s="39">
+      <c r="AA22" s="40">
         <f t="shared" si="0"/>
         <v>145</v>
       </c>
@@ -26658,7 +26750,7 @@
       <c r="Z23" s="45">
         <v>550.97</v>
       </c>
-      <c r="AA23" s="39">
+      <c r="AA23" s="40">
         <f t="shared" si="0"/>
         <v>546.47</v>
       </c>
@@ -26736,7 +26828,7 @@
       <c r="Z24" s="45">
         <v>145</v>
       </c>
-      <c r="AA24" s="39">
+      <c r="AA24" s="40">
         <f t="shared" si="0"/>
         <v>145</v>
       </c>
@@ -26814,7 +26906,7 @@
       <c r="Z25" s="45">
         <v>181</v>
       </c>
-      <c r="AA25" s="39">
+      <c r="AA25" s="40">
         <f t="shared" si="0"/>
         <v>181</v>
       </c>
@@ -26892,7 +26984,7 @@
       <c r="Z26" s="45">
         <v>162</v>
       </c>
-      <c r="AA26" s="39">
+      <c r="AA26" s="40">
         <f t="shared" si="0"/>
         <v>162</v>
       </c>
@@ -26916,7 +27008,7 @@
       <c r="H27" s="2">
         <v>655</v>
       </c>
-      <c r="I27" s="42">
+      <c r="I27" s="43">
         <v>558</v>
       </c>
       <c r="J27" s="24">
@@ -26928,7 +27020,7 @@
       <c r="L27" s="2">
         <v>558</v>
       </c>
-      <c r="M27" s="42">
+      <c r="M27" s="43">
         <v>582</v>
       </c>
       <c r="N27" s="24">
@@ -26970,7 +27062,7 @@
       <c r="Z27" s="45">
         <v>655</v>
       </c>
-      <c r="AA27" s="39">
+      <c r="AA27" s="40">
         <f t="shared" si="0"/>
         <v>509</v>
       </c>
@@ -26994,7 +27086,7 @@
       <c r="H28" s="2">
         <v>10900.24</v>
       </c>
-      <c r="I28" s="42">
+      <c r="I28" s="43">
         <v>9818.95</v>
       </c>
       <c r="J28" s="24">
@@ -27006,7 +27098,7 @@
       <c r="L28" s="2">
         <v>9934.05</v>
       </c>
-      <c r="M28" s="42">
+      <c r="M28" s="43">
         <v>10082.97</v>
       </c>
       <c r="N28" s="24">
@@ -27048,7 +27140,7 @@
       <c r="Z28" s="45">
         <v>10591.78</v>
       </c>
-      <c r="AA28" s="39">
+      <c r="AA28" s="40">
         <f t="shared" si="0"/>
         <v>9090.91</v>
       </c>
@@ -27072,7 +27164,7 @@
       <c r="H29" s="2">
         <v>1369</v>
       </c>
-      <c r="I29" s="42">
+      <c r="I29" s="43">
         <v>1404</v>
       </c>
       <c r="J29" s="24">
@@ -27084,7 +27176,7 @@
       <c r="L29" s="2">
         <v>1405</v>
       </c>
-      <c r="M29" s="42">
+      <c r="M29" s="43">
         <v>1356</v>
       </c>
       <c r="N29" s="24">
@@ -27126,7 +27218,7 @@
       <c r="Z29" s="45">
         <v>1369</v>
       </c>
-      <c r="AA29" s="39">
+      <c r="AA29" s="40">
         <f t="shared" si="0"/>
         <v>1356</v>
       </c>
@@ -27150,7 +27242,7 @@
       <c r="H30" s="2">
         <v>3454</v>
       </c>
-      <c r="I30" s="42">
+      <c r="I30" s="43">
         <v>3155</v>
       </c>
       <c r="J30" s="24">
@@ -27162,7 +27254,7 @@
       <c r="L30" s="2">
         <v>2884</v>
       </c>
-      <c r="M30" s="42">
+      <c r="M30" s="43">
         <v>3155</v>
       </c>
       <c r="N30" s="24">
@@ -27204,7 +27296,7 @@
       <c r="Z30" s="45">
         <v>3454</v>
       </c>
-      <c r="AA30" s="39">
+      <c r="AA30" s="40">
         <f t="shared" si="0"/>
         <v>2884</v>
       </c>
@@ -27228,7 +27320,7 @@
       <c r="H31" s="2">
         <v>5037.2</v>
       </c>
-      <c r="I31" s="42">
+      <c r="I31" s="43">
         <v>4792.31</v>
       </c>
       <c r="J31" s="24">
@@ -27240,7 +27332,7 @@
       <c r="L31" s="2">
         <v>4492.73</v>
       </c>
-      <c r="M31" s="42">
+      <c r="M31" s="43">
         <v>4788.84</v>
       </c>
       <c r="N31" s="24">
@@ -27282,7 +27374,7 @@
       <c r="Z31" s="45">
         <v>4865.02</v>
       </c>
-      <c r="AA31" s="39">
+      <c r="AA31" s="40">
         <f t="shared" si="0"/>
         <v>4492.73</v>
       </c>
@@ -27306,7 +27398,7 @@
       <c r="H32" s="2">
         <v>6400.64</v>
       </c>
-      <c r="I32" s="42">
+      <c r="I32" s="43">
         <v>7646.9</v>
       </c>
       <c r="J32" s="24">
@@ -27318,7 +27410,7 @@
       <c r="L32" s="2">
         <v>7429.09</v>
       </c>
-      <c r="M32" s="42">
+      <c r="M32" s="43">
         <v>7646.9</v>
       </c>
       <c r="N32" s="24">
@@ -27360,7 +27452,7 @@
       <c r="Z32" s="45">
         <v>6400.64</v>
       </c>
-      <c r="AA32" s="39">
+      <c r="AA32" s="40">
         <f t="shared" si="0"/>
         <v>6211.1</v>
       </c>
@@ -27384,7 +27476,7 @@
       <c r="H33" s="2">
         <v>6863.81</v>
       </c>
-      <c r="I33" s="42">
+      <c r="I33" s="43">
         <v>6772.97</v>
       </c>
       <c r="J33" s="24">
@@ -27396,7 +27488,7 @@
       <c r="L33" s="2">
         <v>6899.46</v>
       </c>
-      <c r="M33" s="42">
+      <c r="M33" s="43">
         <v>6741.11</v>
       </c>
       <c r="N33" s="24">
@@ -27438,7 +27530,7 @@
       <c r="Z33" s="45">
         <v>6863.81</v>
       </c>
-      <c r="AA33" s="39">
+      <c r="AA33" s="40">
         <f t="shared" si="0"/>
         <v>6659.94</v>
       </c>
@@ -27462,7 +27554,7 @@
       <c r="H34" s="2">
         <v>5474.72</v>
       </c>
-      <c r="I34" s="42">
+      <c r="I34" s="43">
         <v>4469.81</v>
       </c>
       <c r="J34" s="24">
@@ -27474,7 +27566,7 @@
       <c r="L34" s="2">
         <v>4405.8</v>
       </c>
-      <c r="M34" s="42">
+      <c r="M34" s="43">
         <v>5384.91</v>
       </c>
       <c r="N34" s="24">
@@ -27516,7 +27608,7 @@
       <c r="Z34" s="45">
         <v>5474.72</v>
       </c>
-      <c r="AA34" s="39">
+      <c r="AA34" s="40">
         <f t="shared" si="0"/>
         <v>4405.8</v>
       </c>
@@ -27540,7 +27632,7 @@
       <c r="H35" s="2">
         <v>5133.8</v>
       </c>
-      <c r="I35" s="42">
+      <c r="I35" s="43">
         <v>5396.33</v>
       </c>
       <c r="J35" s="24">
@@ -27552,7 +27644,7 @@
       <c r="L35" s="2">
         <v>5281.26</v>
       </c>
-      <c r="M35" s="42">
+      <c r="M35" s="43">
         <v>5396.33</v>
       </c>
       <c r="N35" s="24">
@@ -27594,7 +27686,7 @@
       <c r="Z35" s="45">
         <v>5053.72</v>
       </c>
-      <c r="AA35" s="39">
+      <c r="AA35" s="40">
         <f t="shared" si="0"/>
         <v>5053.72</v>
       </c>
@@ -27618,7 +27710,7 @@
       <c r="H36" s="2">
         <v>6783.23</v>
       </c>
-      <c r="I36" s="42">
+      <c r="I36" s="43">
         <v>8301.6</v>
       </c>
       <c r="J36" s="24">
@@ -27630,7 +27722,7 @@
       <c r="L36" s="2">
         <v>7915.92</v>
       </c>
-      <c r="M36" s="42">
+      <c r="M36" s="43">
         <v>7231.98</v>
       </c>
       <c r="N36" s="24">
@@ -27672,7 +27764,7 @@
       <c r="Z36" s="45">
         <v>6556.11</v>
       </c>
-      <c r="AA36" s="39">
+      <c r="AA36" s="40">
         <f t="shared" si="0"/>
         <v>6503.68</v>
       </c>
@@ -27696,7 +27788,7 @@
       <c r="H37" s="2">
         <v>4318.56</v>
       </c>
-      <c r="I37" s="42">
+      <c r="I37" s="43">
         <v>5853.33</v>
       </c>
       <c r="J37" s="24">
@@ -27708,7 +27800,7 @@
       <c r="L37" s="2">
         <v>5811.52</v>
       </c>
-      <c r="M37" s="42">
+      <c r="M37" s="43">
         <v>4293.02</v>
       </c>
       <c r="N37" s="24">
@@ -27750,7 +27842,7 @@
       <c r="Z37" s="45">
         <v>4310.71</v>
       </c>
-      <c r="AA37" s="39">
+      <c r="AA37" s="40">
         <f t="shared" si="0"/>
         <v>4293.02</v>
       </c>
@@ -27774,7 +27866,7 @@
       <c r="H38" s="2">
         <v>5220.64</v>
       </c>
-      <c r="I38" s="42">
+      <c r="I38" s="43">
         <v>5246.28</v>
       </c>
       <c r="J38" s="24">
@@ -27786,7 +27878,7 @@
       <c r="L38" s="2">
         <v>5220.64</v>
       </c>
-      <c r="M38" s="42">
+      <c r="M38" s="43">
         <v>5246.28</v>
       </c>
       <c r="N38" s="24">
@@ -27828,7 +27920,7 @@
       <c r="Z38" s="45">
         <v>5220.64</v>
       </c>
-      <c r="AA38" s="39">
+      <c r="AA38" s="40">
         <f t="shared" si="0"/>
         <v>5005.47</v>
       </c>
@@ -27852,7 +27944,7 @@
       <c r="H39" s="2">
         <v>3984.43</v>
       </c>
-      <c r="I39" s="42">
+      <c r="I39" s="43">
         <v>3842.76</v>
       </c>
       <c r="J39" s="24">
@@ -27864,7 +27956,7 @@
       <c r="L39" s="2">
         <v>3842.76</v>
       </c>
-      <c r="M39" s="42">
+      <c r="M39" s="43">
         <v>3919.58</v>
       </c>
       <c r="N39" s="24">
@@ -27906,7 +27998,7 @@
       <c r="Z39" s="45">
         <v>3984.43</v>
       </c>
-      <c r="AA39" s="39">
+      <c r="AA39" s="40">
         <f t="shared" ref="AA39:AA67" si="1">SMALL(E39:Z39,1)</f>
         <v>3470.35</v>
       </c>
@@ -27930,7 +28022,7 @@
       <c r="H40" s="2">
         <v>2084.1</v>
       </c>
-      <c r="I40" s="42">
+      <c r="I40" s="43">
         <v>2067.87</v>
       </c>
       <c r="J40" s="24">
@@ -27942,7 +28034,7 @@
       <c r="L40" s="2">
         <v>2067.87</v>
       </c>
-      <c r="M40" s="42">
+      <c r="M40" s="43">
         <v>2002.98</v>
       </c>
       <c r="N40" s="24">
@@ -27984,7 +28076,7 @@
       <c r="Z40" s="45">
         <v>2043.71</v>
       </c>
-      <c r="AA40" s="39">
+      <c r="AA40" s="40">
         <f t="shared" si="1"/>
         <v>1853.13</v>
       </c>
@@ -28008,7 +28100,7 @@
       <c r="H41" s="2">
         <v>9122.72</v>
       </c>
-      <c r="I41" s="42">
+      <c r="I41" s="43">
         <v>9230.75</v>
       </c>
       <c r="J41" s="24">
@@ -28020,7 +28112,7 @@
       <c r="L41" s="2">
         <v>9131.48</v>
       </c>
-      <c r="M41" s="42">
+      <c r="M41" s="43">
         <v>9406.35</v>
       </c>
       <c r="N41" s="24">
@@ -28062,7 +28154,7 @@
       <c r="Z41" s="45">
         <v>8731.34</v>
       </c>
-      <c r="AA41" s="39">
+      <c r="AA41" s="40">
         <f t="shared" si="1"/>
         <v>8081.43</v>
       </c>
@@ -28140,7 +28232,7 @@
       <c r="Z42" s="45">
         <v>12869.89</v>
       </c>
-      <c r="AA42" s="39">
+      <c r="AA42" s="40">
         <f t="shared" si="1"/>
         <v>12801.82</v>
       </c>
@@ -28218,7 +28310,7 @@
       <c r="Z43" s="45">
         <v>678</v>
       </c>
-      <c r="AA43" s="39">
+      <c r="AA43" s="40">
         <f t="shared" si="1"/>
         <v>535</v>
       </c>
@@ -28230,10 +28322,10 @@
       <c r="D44" s="24">
         <v>19</v>
       </c>
-      <c r="E44" s="41">
+      <c r="E44" s="42">
         <v>25126.84</v>
       </c>
-      <c r="F44" s="41">
+      <c r="F44" s="42">
         <v>25126.84</v>
       </c>
       <c r="G44" s="47">
@@ -28242,7 +28334,7 @@
       <c r="H44" s="22">
         <v>23589.53</v>
       </c>
-      <c r="I44" s="42">
+      <c r="I44" s="43">
         <v>25126.84</v>
       </c>
       <c r="J44" s="24">
@@ -28254,7 +28346,7 @@
       <c r="L44" s="2">
         <v>23589.53</v>
       </c>
-      <c r="M44" s="42">
+      <c r="M44" s="43">
         <v>25126.84</v>
       </c>
       <c r="N44" s="24">
@@ -28296,7 +28388,7 @@
       <c r="Z44" s="45">
         <v>23589.53</v>
       </c>
-      <c r="AA44" s="39">
+      <c r="AA44" s="40">
         <f t="shared" si="1"/>
         <v>23589.53</v>
       </c>
@@ -28320,7 +28412,7 @@
       <c r="H45" s="2">
         <v>7918.17</v>
       </c>
-      <c r="I45" s="42">
+      <c r="I45" s="43">
         <v>7165.83</v>
       </c>
       <c r="J45" s="24">
@@ -28332,7 +28424,7 @@
       <c r="L45" s="2">
         <v>7379.46</v>
       </c>
-      <c r="M45" s="42">
+      <c r="M45" s="43">
         <v>7537.29</v>
       </c>
       <c r="N45" s="24">
@@ -28374,7 +28466,7 @@
       <c r="Z45" s="45">
         <v>7203.74</v>
       </c>
-      <c r="AA45" s="39">
+      <c r="AA45" s="40">
         <f t="shared" si="1"/>
         <v>6938.06</v>
       </c>
@@ -28398,7 +28490,7 @@
       <c r="H46" s="2">
         <v>10306.54</v>
       </c>
-      <c r="I46" s="42">
+      <c r="I46" s="43">
         <v>14065.44</v>
       </c>
       <c r="J46" s="24">
@@ -28410,7 +28502,7 @@
       <c r="L46" s="2">
         <v>12877.05</v>
       </c>
-      <c r="M46" s="42">
+      <c r="M46" s="43">
         <v>14065.44</v>
       </c>
       <c r="N46" s="24">
@@ -28452,7 +28544,7 @@
       <c r="Z46" s="45">
         <v>10150.54</v>
       </c>
-      <c r="AA46" s="39">
+      <c r="AA46" s="40">
         <f t="shared" si="1"/>
         <v>10150.54</v>
       </c>
@@ -28476,7 +28568,7 @@
       <c r="H47" s="2">
         <v>22376.19</v>
       </c>
-      <c r="I47" s="42">
+      <c r="I47" s="43">
         <v>23341.46</v>
       </c>
       <c r="J47" s="24">
@@ -28488,7 +28580,7 @@
       <c r="L47" s="2">
         <v>23907.89</v>
       </c>
-      <c r="M47" s="42">
+      <c r="M47" s="43">
         <v>23147.12</v>
       </c>
       <c r="N47" s="24">
@@ -28530,7 +28622,7 @@
       <c r="Z47" s="45">
         <v>21434.77</v>
       </c>
-      <c r="AA47" s="39">
+      <c r="AA47" s="40">
         <f t="shared" si="1"/>
         <v>21090.81</v>
       </c>
@@ -28554,7 +28646,7 @@
       <c r="H48" s="2">
         <v>10893.75</v>
       </c>
-      <c r="I48" s="42">
+      <c r="I48" s="43">
         <v>12001.03</v>
       </c>
       <c r="J48" s="24">
@@ -28566,7 +28658,7 @@
       <c r="L48" s="2">
         <v>12001.03</v>
       </c>
-      <c r="M48" s="42">
+      <c r="M48" s="43">
         <v>11480.73</v>
       </c>
       <c r="N48" s="24">
@@ -28608,7 +28700,7 @@
       <c r="Z48" s="45">
         <v>10778.34</v>
       </c>
-      <c r="AA48" s="39">
+      <c r="AA48" s="40">
         <f t="shared" si="1"/>
         <v>10742.86</v>
       </c>
@@ -28632,7 +28724,7 @@
       <c r="H49" s="2">
         <v>16537.99</v>
       </c>
-      <c r="I49" s="42">
+      <c r="I49" s="43">
         <v>15403.26</v>
       </c>
       <c r="J49" s="24">
@@ -28644,7 +28736,7 @@
       <c r="L49" s="2">
         <v>16537.99</v>
       </c>
-      <c r="M49" s="42">
+      <c r="M49" s="43">
         <v>15403.26</v>
       </c>
       <c r="N49" s="24">
@@ -28686,7 +28778,7 @@
       <c r="Z49" s="45">
         <v>15420.29</v>
       </c>
-      <c r="AA49" s="39">
+      <c r="AA49" s="40">
         <f t="shared" si="1"/>
         <v>13879.3</v>
       </c>
@@ -28710,7 +28802,7 @@
       <c r="H50" s="2">
         <v>22638.14</v>
       </c>
-      <c r="I50" s="42">
+      <c r="I50" s="43">
         <v>23231.19</v>
       </c>
       <c r="J50" s="24">
@@ -28722,7 +28814,7 @@
       <c r="L50" s="2">
         <v>23248.9</v>
       </c>
-      <c r="M50" s="42">
+      <c r="M50" s="43">
         <v>23231.19</v>
       </c>
       <c r="N50" s="24">
@@ -28764,7 +28856,7 @@
       <c r="Z50" s="45">
         <v>21400.94</v>
       </c>
-      <c r="AA50" s="39">
+      <c r="AA50" s="40">
         <f t="shared" si="1"/>
         <v>21400.94</v>
       </c>
@@ -28788,7 +28880,7 @@
       <c r="H51" s="2">
         <v>7800</v>
       </c>
-      <c r="I51" s="42">
+      <c r="I51" s="43">
         <v>8023.61</v>
       </c>
       <c r="J51" s="24">
@@ -28800,7 +28892,7 @@
       <c r="L51" s="2">
         <v>7800</v>
       </c>
-      <c r="M51" s="42">
+      <c r="M51" s="43">
         <v>8023.61</v>
       </c>
       <c r="N51" s="24">
@@ -28842,7 +28934,7 @@
       <c r="Z51" s="45">
         <v>7800</v>
       </c>
-      <c r="AA51" s="39">
+      <c r="AA51" s="40">
         <f t="shared" si="1"/>
         <v>7800</v>
       </c>
@@ -28866,7 +28958,7 @@
       <c r="H52" s="2">
         <v>11693.22</v>
       </c>
-      <c r="I52" s="42">
+      <c r="I52" s="43">
         <v>12127.29</v>
       </c>
       <c r="J52" s="24">
@@ -28878,7 +28970,7 @@
       <c r="L52" s="2">
         <v>12256.31</v>
       </c>
-      <c r="M52" s="42">
+      <c r="M52" s="43">
         <v>10546.96</v>
       </c>
       <c r="N52" s="24">
@@ -28920,7 +29012,7 @@
       <c r="Z52" s="45">
         <v>11469.19</v>
       </c>
-      <c r="AA52" s="39">
+      <c r="AA52" s="40">
         <f t="shared" si="1"/>
         <v>10546.96</v>
       </c>
@@ -28944,7 +29036,7 @@
       <c r="H53" s="2">
         <v>21666.36</v>
       </c>
-      <c r="I53" s="42">
+      <c r="I53" s="43">
         <v>22904.63</v>
       </c>
       <c r="J53" s="24">
@@ -28956,7 +29048,7 @@
       <c r="L53" s="2">
         <v>23304.76</v>
       </c>
-      <c r="M53" s="42">
+      <c r="M53" s="43">
         <v>21586.45</v>
       </c>
       <c r="N53" s="24">
@@ -28998,7 +29090,7 @@
       <c r="Z53" s="45">
         <v>21198.5</v>
       </c>
-      <c r="AA53" s="39">
+      <c r="AA53" s="40">
         <f t="shared" si="1"/>
         <v>21198.5</v>
       </c>
@@ -29022,7 +29114,7 @@
       <c r="H54" s="2">
         <v>66131.75</v>
       </c>
-      <c r="I54" s="42">
+      <c r="I54" s="43">
         <v>65571.91</v>
       </c>
       <c r="J54" s="24" t="s">
@@ -29076,7 +29168,7 @@
       <c r="Z54" s="45">
         <v>63788.39</v>
       </c>
-      <c r="AA54" s="39">
+      <c r="AA54" s="40">
         <f t="shared" si="1"/>
         <v>63788.39</v>
       </c>
@@ -29100,7 +29192,7 @@
       <c r="H55" s="2">
         <v>255.03</v>
       </c>
-      <c r="I55" s="42">
+      <c r="I55" s="43">
         <v>323.19</v>
       </c>
       <c r="J55" s="24">
@@ -29112,7 +29204,7 @@
       <c r="L55" s="2">
         <v>341.87</v>
       </c>
-      <c r="M55" s="42">
+      <c r="M55" s="43">
         <v>292.55</v>
       </c>
       <c r="N55" s="24">
@@ -29154,7 +29246,7 @@
       <c r="Z55" s="45">
         <v>255.03</v>
       </c>
-      <c r="AA55" s="39">
+      <c r="AA55" s="40">
         <f t="shared" si="1"/>
         <v>255.03</v>
       </c>
@@ -29178,7 +29270,7 @@
       <c r="H56" s="2">
         <v>559.05</v>
       </c>
-      <c r="I56" s="42">
+      <c r="I56" s="43">
         <v>593.08</v>
       </c>
       <c r="J56" s="24">
@@ -29190,7 +29282,7 @@
       <c r="L56" s="2">
         <v>594.47</v>
       </c>
-      <c r="M56" s="42">
+      <c r="M56" s="43">
         <v>546.13</v>
       </c>
       <c r="N56" s="24">
@@ -29232,7 +29324,7 @@
       <c r="Z56" s="45">
         <v>552.93</v>
       </c>
-      <c r="AA56" s="39">
+      <c r="AA56" s="40">
         <f t="shared" si="1"/>
         <v>538.97</v>
       </c>
@@ -29256,7 +29348,7 @@
       <c r="H57" s="2">
         <v>1721.77</v>
       </c>
-      <c r="I57" s="42">
+      <c r="I57" s="43">
         <v>1730.98</v>
       </c>
       <c r="J57" s="24">
@@ -29268,7 +29360,7 @@
       <c r="L57" s="2">
         <v>1724.74</v>
       </c>
-      <c r="M57" s="42">
+      <c r="M57" s="43">
         <v>1700.81</v>
       </c>
       <c r="N57" s="24">
@@ -29310,7 +29402,7 @@
       <c r="Z57" s="45">
         <v>1659.85</v>
       </c>
-      <c r="AA57" s="39">
+      <c r="AA57" s="40">
         <f t="shared" si="1"/>
         <v>1659.85</v>
       </c>
@@ -29334,7 +29426,7 @@
       <c r="H58" s="2">
         <v>2364.1</v>
       </c>
-      <c r="I58" s="42">
+      <c r="I58" s="43">
         <v>2372.35</v>
       </c>
       <c r="J58" s="24" t="s">
@@ -29346,7 +29438,7 @@
       <c r="L58" s="2">
         <v>2434.48</v>
       </c>
-      <c r="M58" s="42">
+      <c r="M58" s="43">
         <v>2218.16</v>
       </c>
       <c r="N58" s="24" t="s">
@@ -29388,7 +29480,7 @@
       <c r="Z58" s="45">
         <v>2236.71</v>
       </c>
-      <c r="AA58" s="39">
+      <c r="AA58" s="40">
         <f t="shared" si="1"/>
         <v>2190.99</v>
       </c>
@@ -29412,7 +29504,7 @@
       <c r="H59" s="2">
         <v>5145</v>
       </c>
-      <c r="I59" s="42">
+      <c r="I59" s="43">
         <v>5478</v>
       </c>
       <c r="J59" s="24">
@@ -29424,7 +29516,7 @@
       <c r="L59" s="2">
         <v>5382</v>
       </c>
-      <c r="M59" s="42">
+      <c r="M59" s="43">
         <v>5420</v>
       </c>
       <c r="N59" s="24">
@@ -29466,7 +29558,7 @@
       <c r="Z59" s="45">
         <v>5105</v>
       </c>
-      <c r="AA59" s="39">
+      <c r="AA59" s="40">
         <f t="shared" si="1"/>
         <v>4975</v>
       </c>
@@ -29490,7 +29582,7 @@
       <c r="H60" s="2">
         <v>12025</v>
       </c>
-      <c r="I60" s="42">
+      <c r="I60" s="43">
         <v>12196</v>
       </c>
       <c r="J60" s="24">
@@ -29502,7 +29594,7 @@
       <c r="L60" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M60" s="42">
+      <c r="M60" s="43">
         <v>12196</v>
       </c>
       <c r="N60" s="24">
@@ -29544,7 +29636,7 @@
       <c r="Z60" s="45">
         <v>11687</v>
       </c>
-      <c r="AA60" s="39">
+      <c r="AA60" s="40">
         <f t="shared" si="1"/>
         <v>11495</v>
       </c>
@@ -29568,7 +29660,7 @@
       <c r="H61" s="2">
         <v>22289</v>
       </c>
-      <c r="I61" s="42">
+      <c r="I61" s="43">
         <v>22414</v>
       </c>
       <c r="J61" s="24">
@@ -29622,7 +29714,7 @@
       <c r="Z61" s="45">
         <v>22289</v>
       </c>
-      <c r="AA61" s="39">
+      <c r="AA61" s="40">
         <f t="shared" si="1"/>
         <v>22289</v>
       </c>
@@ -29646,7 +29738,7 @@
       <c r="H62" s="2">
         <v>127.21</v>
       </c>
-      <c r="I62" s="42">
+      <c r="I62" s="43">
         <v>127.18</v>
       </c>
       <c r="J62" s="24">
@@ -29658,7 +29750,7 @@
       <c r="L62" s="2">
         <v>119.95</v>
       </c>
-      <c r="M62" s="42">
+      <c r="M62" s="43">
         <v>127.18</v>
       </c>
       <c r="N62" s="24">
@@ -29700,7 +29792,7 @@
       <c r="Z62" s="45">
         <v>126.31</v>
       </c>
-      <c r="AA62" s="39">
+      <c r="AA62" s="40">
         <f t="shared" si="1"/>
         <v>102.42</v>
       </c>
@@ -29724,7 +29816,7 @@
       <c r="H63" s="2">
         <v>146</v>
       </c>
-      <c r="I63" s="42">
+      <c r="I63" s="43">
         <v>146</v>
       </c>
       <c r="J63" s="24">
@@ -29736,7 +29828,7 @@
       <c r="L63" s="2">
         <v>146</v>
       </c>
-      <c r="M63" s="42">
+      <c r="M63" s="43">
         <v>146</v>
       </c>
       <c r="N63" s="24">
@@ -29778,7 +29870,7 @@
       <c r="Z63" s="45">
         <v>146</v>
       </c>
-      <c r="AA63" s="39">
+      <c r="AA63" s="40">
         <f t="shared" si="1"/>
         <v>146</v>
       </c>
@@ -29802,7 +29894,7 @@
       <c r="H64" s="2">
         <v>27500</v>
       </c>
-      <c r="I64" s="42">
+      <c r="I64" s="43">
         <v>27500</v>
       </c>
       <c r="J64" s="24">
@@ -29814,7 +29906,7 @@
       <c r="L64" s="2">
         <v>27500</v>
       </c>
-      <c r="M64" s="42">
+      <c r="M64" s="43">
         <v>27500</v>
       </c>
       <c r="N64" s="24">
@@ -29856,7 +29948,7 @@
       <c r="Z64" s="45">
         <v>27500</v>
       </c>
-      <c r="AA64" s="39">
+      <c r="AA64" s="40">
         <f t="shared" si="1"/>
         <v>27500</v>
       </c>
@@ -29880,7 +29972,7 @@
       <c r="H65" s="2">
         <v>986.19</v>
       </c>
-      <c r="I65" s="42">
+      <c r="I65" s="43">
         <v>1038.03</v>
       </c>
       <c r="J65" s="24">
@@ -29892,7 +29984,7 @@
       <c r="L65" s="2">
         <v>1018.34</v>
       </c>
-      <c r="M65" s="42">
+      <c r="M65" s="43">
         <v>1094.89</v>
       </c>
       <c r="N65" s="24">
@@ -29934,7 +30026,7 @@
       <c r="Z65" s="45">
         <v>936.69</v>
       </c>
-      <c r="AA65" s="39">
+      <c r="AA65" s="40">
         <f t="shared" si="1"/>
         <v>936.69</v>
       </c>
@@ -29958,7 +30050,7 @@
       <c r="H66" s="2">
         <v>751.06</v>
       </c>
-      <c r="I66" s="42">
+      <c r="I66" s="43">
         <v>751.06</v>
       </c>
       <c r="J66" s="24">
@@ -29970,7 +30062,7 @@
       <c r="L66" s="2">
         <v>751.06</v>
       </c>
-      <c r="M66" s="42">
+      <c r="M66" s="43">
         <v>751.06</v>
       </c>
       <c r="N66" s="24">
@@ -30012,7 +30104,7 @@
       <c r="Z66" s="45">
         <v>751.06</v>
       </c>
-      <c r="AA66" s="39">
+      <c r="AA66" s="40">
         <f t="shared" si="1"/>
         <v>649.52</v>
       </c>
@@ -30096,104 +30188,104 @@
       </c>
     </row>
     <row r="68" spans="3:27">
-      <c r="C68" s="37" t="s">
+      <c r="C68" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="D68" s="37"/>
-      <c r="E68" s="40">
+      <c r="D68" s="38"/>
+      <c r="E68" s="41">
         <v>7</v>
       </c>
-      <c r="F68" s="40">
+      <c r="F68" s="41">
         <v>8</v>
       </c>
-      <c r="G68" s="40">
+      <c r="G68" s="41">
         <v>7</v>
       </c>
-      <c r="H68" s="40">
+      <c r="H68" s="41">
         <v>16</v>
       </c>
-      <c r="I68" s="40">
+      <c r="I68" s="41">
         <v>6</v>
       </c>
-      <c r="J68" s="40">
+      <c r="J68" s="41">
         <v>8</v>
       </c>
-      <c r="K68" s="40">
+      <c r="K68" s="41">
         <v>6</v>
       </c>
-      <c r="L68" s="40">
+      <c r="L68" s="41">
         <v>14</v>
       </c>
-      <c r="M68" s="40">
+      <c r="M68" s="41">
         <v>9</v>
       </c>
-      <c r="N68" s="40">
+      <c r="N68" s="41">
         <v>10</v>
       </c>
-      <c r="O68" s="40">
+      <c r="O68" s="41">
         <v>11</v>
       </c>
-      <c r="P68" s="40">
+      <c r="P68" s="41">
         <v>3</v>
       </c>
-      <c r="Q68" s="40">
+      <c r="Q68" s="41">
         <v>3</v>
       </c>
-      <c r="R68" s="40">
+      <c r="R68" s="41">
         <v>5</v>
       </c>
-      <c r="S68" s="40">
+      <c r="S68" s="41">
         <v>4</v>
       </c>
-      <c r="T68" s="40">
+      <c r="T68" s="41">
         <v>5</v>
       </c>
-      <c r="U68" s="40">
+      <c r="U68" s="41">
         <v>14</v>
       </c>
-      <c r="V68" s="40">
+      <c r="V68" s="41">
         <v>17</v>
       </c>
-      <c r="W68" s="40">
+      <c r="W68" s="41">
         <v>22</v>
       </c>
-      <c r="X68" s="40">
+      <c r="X68" s="41">
         <v>20</v>
       </c>
-      <c r="Y68" s="40">
+      <c r="Y68" s="41">
         <v>21</v>
       </c>
-      <c r="Z68" s="40">
+      <c r="Z68" s="41">
         <v>25</v>
       </c>
-      <c r="AA68" s="40"/>
+      <c r="AA68" s="41"/>
     </row>
     <row r="69" ht="22" customHeight="1" spans="3:27">
-      <c r="C69" s="37"/>
-      <c r="D69" s="37"/>
-      <c r="E69" s="40"/>
-      <c r="F69" s="40"/>
-      <c r="G69" s="40"/>
-      <c r="H69" s="40"/>
-      <c r="I69" s="40"/>
-      <c r="J69" s="40"/>
-      <c r="K69" s="40"/>
-      <c r="L69" s="40"/>
-      <c r="M69" s="40"/>
-      <c r="N69" s="40"/>
-      <c r="O69" s="40"/>
-      <c r="P69" s="40"/>
-      <c r="Q69" s="40"/>
-      <c r="R69" s="40"/>
-      <c r="S69" s="40"/>
-      <c r="T69" s="40"/>
-      <c r="U69" s="40"/>
-      <c r="V69" s="40"/>
-      <c r="W69" s="40"/>
-      <c r="X69" s="40"/>
-      <c r="Y69" s="40"/>
-      <c r="Z69" s="40"/>
-      <c r="AA69" s="40"/>
+      <c r="C69" s="38"/>
+      <c r="D69" s="38"/>
+      <c r="E69" s="41"/>
+      <c r="F69" s="41"/>
+      <c r="G69" s="41"/>
+      <c r="H69" s="41"/>
+      <c r="I69" s="41"/>
+      <c r="J69" s="41"/>
+      <c r="K69" s="41"/>
+      <c r="L69" s="41"/>
+      <c r="M69" s="41"/>
+      <c r="N69" s="41"/>
+      <c r="O69" s="41"/>
+      <c r="P69" s="41"/>
+      <c r="Q69" s="41"/>
+      <c r="R69" s="41"/>
+      <c r="S69" s="41"/>
+      <c r="T69" s="41"/>
+      <c r="U69" s="41"/>
+      <c r="V69" s="41"/>
+      <c r="W69" s="41"/>
+      <c r="X69" s="41"/>
+      <c r="Y69" s="41"/>
+      <c r="Z69" s="41"/>
+      <c r="AA69" s="41"/>
     </row>
     <row r="71" spans="5:5">
       <c r="E71" t="s">
@@ -30637,7 +30729,7 @@
       </c>
       <c r="X3" s="22"/>
       <c r="Y3" s="26"/>
-      <c r="Z3" s="35" t="s">
+      <c r="Z3" s="36" t="s">
         <v>8</v>
       </c>
     </row>
@@ -30711,13 +30803,13 @@
       <c r="X4" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="Y4" s="36" t="s">
+      <c r="Y4" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="Z4" s="37"/>
+      <c r="Z4" s="38"/>
     </row>
     <row r="5" ht="15.75" spans="2:26">
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="42" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="21">
@@ -30777,19 +30869,19 @@
       <c r="U5" s="25">
         <v>1469.76</v>
       </c>
-      <c r="V5" s="43">
+      <c r="V5" s="44">
         <v>1485.28</v>
       </c>
       <c r="W5" s="34">
         <v>1297</v>
       </c>
-      <c r="X5" s="44">
+      <c r="X5" s="35">
         <v>1290.37</v>
       </c>
       <c r="Y5" s="45">
         <v>1293.23</v>
       </c>
-      <c r="Z5" s="39">
+      <c r="Z5" s="40">
         <f>SMALL(D5:Y5,1)</f>
         <v>1289.93</v>
       </c>
@@ -30855,19 +30947,19 @@
       <c r="U6" s="25">
         <v>3618</v>
       </c>
-      <c r="V6" s="43">
+      <c r="V6" s="44">
         <v>3618</v>
       </c>
       <c r="W6" s="34">
         <v>3451</v>
       </c>
-      <c r="X6" s="44">
+      <c r="X6" s="35">
         <v>3235</v>
       </c>
       <c r="Y6" s="45">
         <v>3235</v>
       </c>
-      <c r="Z6" s="39">
+      <c r="Z6" s="40">
         <f t="shared" ref="Z6:Z37" si="0">SMALL(D6:Y6,1)</f>
         <v>3231</v>
       </c>
@@ -30933,19 +31025,19 @@
       <c r="U7" s="25">
         <v>14965</v>
       </c>
-      <c r="V7" s="43">
+      <c r="V7" s="44">
         <v>14938</v>
       </c>
       <c r="W7" s="34">
         <v>13649</v>
       </c>
-      <c r="X7" s="44">
+      <c r="X7" s="35">
         <v>13561</v>
       </c>
       <c r="Y7" s="45">
         <v>13417</v>
       </c>
-      <c r="Z7" s="39">
+      <c r="Z7" s="40">
         <f t="shared" si="0"/>
         <v>9594</v>
       </c>
@@ -31011,19 +31103,19 @@
       <c r="U8" s="25">
         <v>655</v>
       </c>
-      <c r="V8" s="43">
+      <c r="V8" s="44">
         <v>655</v>
       </c>
       <c r="W8" s="34">
         <v>581</v>
       </c>
-      <c r="X8" s="44">
+      <c r="X8" s="35">
         <v>581</v>
       </c>
       <c r="Y8" s="45">
         <v>581</v>
       </c>
-      <c r="Z8" s="39">
+      <c r="Z8" s="40">
         <f t="shared" si="0"/>
         <v>581</v>
       </c>
@@ -31089,19 +31181,19 @@
       <c r="U9" s="25">
         <v>752</v>
       </c>
-      <c r="V9" s="43">
+      <c r="V9" s="44">
         <v>752</v>
       </c>
       <c r="W9" s="34">
         <v>692</v>
       </c>
-      <c r="X9" s="44">
+      <c r="X9" s="35">
         <v>692</v>
       </c>
       <c r="Y9" s="45">
         <v>692</v>
       </c>
-      <c r="Z9" s="39">
+      <c r="Z9" s="40">
         <f t="shared" si="0"/>
         <v>692</v>
       </c>
@@ -31167,19 +31259,19 @@
       <c r="U10" s="25">
         <v>2106.37</v>
       </c>
-      <c r="V10" s="43">
+      <c r="V10" s="44">
         <v>2033.99</v>
       </c>
       <c r="W10" s="34">
         <v>1766.5</v>
       </c>
-      <c r="X10" s="44">
+      <c r="X10" s="35">
         <v>1766.5</v>
       </c>
       <c r="Y10" s="45">
         <v>1766.5</v>
       </c>
-      <c r="Z10" s="39">
+      <c r="Z10" s="40">
         <f t="shared" si="0"/>
         <v>1766.5</v>
       </c>
@@ -31245,19 +31337,19 @@
       <c r="U11" s="25">
         <v>27999.03</v>
       </c>
-      <c r="V11" s="43">
+      <c r="V11" s="44">
         <v>28657.67</v>
       </c>
       <c r="W11" s="34">
         <v>28807.14</v>
       </c>
-      <c r="X11" s="44">
+      <c r="X11" s="35">
         <v>28116.02</v>
       </c>
       <c r="Y11" s="45">
         <v>27549.61</v>
       </c>
-      <c r="Z11" s="39">
+      <c r="Z11" s="40">
         <f t="shared" si="0"/>
         <v>27447.71</v>
       </c>
@@ -31323,19 +31415,19 @@
       <c r="U12" s="25">
         <v>8201</v>
       </c>
-      <c r="V12" s="43">
+      <c r="V12" s="44">
         <v>7685</v>
       </c>
       <c r="W12" s="34">
         <v>8357</v>
       </c>
-      <c r="X12" s="44">
+      <c r="X12" s="35">
         <v>8187</v>
       </c>
       <c r="Y12" s="45">
         <v>8357</v>
       </c>
-      <c r="Z12" s="39">
+      <c r="Z12" s="40">
         <f t="shared" si="0"/>
         <v>7685</v>
       </c>
@@ -31401,19 +31493,19 @@
       <c r="U13" s="25">
         <v>1160</v>
       </c>
-      <c r="V13" s="43">
+      <c r="V13" s="44">
         <v>1180</v>
       </c>
       <c r="W13" s="34">
         <v>950</v>
       </c>
-      <c r="X13" s="44">
+      <c r="X13" s="35">
         <v>950</v>
       </c>
       <c r="Y13" s="45">
         <v>950</v>
       </c>
-      <c r="Z13" s="39">
+      <c r="Z13" s="40">
         <f t="shared" si="0"/>
         <v>950</v>
       </c>
@@ -31479,19 +31571,19 @@
       <c r="U14" s="25">
         <v>967.86</v>
       </c>
-      <c r="V14" s="43">
+      <c r="V14" s="44">
         <v>967.86</v>
       </c>
       <c r="W14" s="34">
         <v>1140.19</v>
       </c>
-      <c r="X14" s="44">
+      <c r="X14" s="35">
         <v>1140.19</v>
       </c>
       <c r="Y14" s="45">
         <v>1140.19</v>
       </c>
-      <c r="Z14" s="39">
+      <c r="Z14" s="40">
         <f t="shared" si="0"/>
         <v>967.86</v>
       </c>
@@ -31557,19 +31649,19 @@
       <c r="U15" s="25">
         <v>2597.19</v>
       </c>
-      <c r="V15" s="43">
+      <c r="V15" s="44">
         <v>2668.1</v>
       </c>
       <c r="W15" s="34">
         <v>2666.12</v>
       </c>
-      <c r="X15" s="44">
+      <c r="X15" s="35">
         <v>2652.57</v>
       </c>
       <c r="Y15" s="45">
         <v>2666.12</v>
       </c>
-      <c r="Z15" s="39">
+      <c r="Z15" s="40">
         <f t="shared" si="0"/>
         <v>2563.28</v>
       </c>
@@ -31635,19 +31727,19 @@
       <c r="U16" s="25">
         <v>3421.42</v>
       </c>
-      <c r="V16" s="43">
+      <c r="V16" s="44">
         <v>3474.26</v>
       </c>
       <c r="W16" s="34">
         <v>3176.92</v>
       </c>
-      <c r="X16" s="44">
+      <c r="X16" s="35">
         <v>3090.64</v>
       </c>
       <c r="Y16" s="45">
         <v>3094.27</v>
       </c>
-      <c r="Z16" s="39">
+      <c r="Z16" s="40">
         <f t="shared" si="0"/>
         <v>3069.1</v>
       </c>
@@ -31713,19 +31805,19 @@
       <c r="U17" s="25">
         <v>261</v>
       </c>
-      <c r="V17" s="43">
+      <c r="V17" s="44">
         <v>252</v>
       </c>
       <c r="W17" s="34">
         <v>239</v>
       </c>
-      <c r="X17" s="44">
+      <c r="X17" s="35">
         <v>239</v>
       </c>
       <c r="Y17" s="45">
         <v>239</v>
       </c>
-      <c r="Z17" s="39">
+      <c r="Z17" s="40">
         <f t="shared" si="0"/>
         <v>239</v>
       </c>
@@ -31791,19 +31883,19 @@
       <c r="U18" s="25">
         <v>173.53</v>
       </c>
-      <c r="V18" s="43">
+      <c r="V18" s="44">
         <v>158.57</v>
       </c>
       <c r="W18" s="34">
         <v>170.44</v>
       </c>
-      <c r="X18" s="44">
+      <c r="X18" s="35">
         <v>170.44</v>
       </c>
       <c r="Y18" s="45">
         <v>170.44</v>
       </c>
-      <c r="Z18" s="39">
+      <c r="Z18" s="40">
         <f t="shared" si="0"/>
         <v>158.57</v>
       </c>
@@ -31869,19 +31961,19 @@
       <c r="U19" s="25">
         <v>226.74</v>
       </c>
-      <c r="V19" s="43">
+      <c r="V19" s="44">
         <v>292.57</v>
       </c>
       <c r="W19" s="34">
         <v>224.99</v>
       </c>
-      <c r="X19" s="44">
+      <c r="X19" s="35">
         <v>224.99</v>
       </c>
       <c r="Y19" s="45">
         <v>224.99</v>
       </c>
-      <c r="Z19" s="39">
+      <c r="Z19" s="40">
         <f t="shared" si="0"/>
         <v>224.72</v>
       </c>
@@ -31947,19 +32039,19 @@
       <c r="U20" s="25">
         <v>282.53</v>
       </c>
-      <c r="V20" s="43">
+      <c r="V20" s="44">
         <v>284.66</v>
       </c>
       <c r="W20" s="34">
         <v>295.65</v>
       </c>
-      <c r="X20" s="44">
+      <c r="X20" s="35">
         <v>293.22</v>
       </c>
       <c r="Y20" s="45">
         <v>295.65</v>
       </c>
-      <c r="Z20" s="39">
+      <c r="Z20" s="40">
         <f t="shared" si="0"/>
         <v>265.75</v>
       </c>
@@ -32025,19 +32117,19 @@
       <c r="U21" s="25">
         <v>361</v>
       </c>
-      <c r="V21" s="43">
+      <c r="V21" s="44">
         <v>361</v>
       </c>
       <c r="W21" s="34">
         <v>334</v>
       </c>
-      <c r="X21" s="44">
+      <c r="X21" s="35">
         <v>331</v>
       </c>
       <c r="Y21" s="45">
         <v>334</v>
       </c>
-      <c r="Z21" s="39">
+      <c r="Z21" s="40">
         <f t="shared" si="0"/>
         <v>331</v>
       </c>
@@ -32103,19 +32195,19 @@
       <c r="U22" s="25">
         <v>1228.27</v>
       </c>
-      <c r="V22" s="43">
+      <c r="V22" s="44">
         <v>1226.4</v>
       </c>
       <c r="W22" s="34">
         <v>1136.13</v>
       </c>
-      <c r="X22" s="44">
+      <c r="X22" s="35">
         <v>1138.47</v>
       </c>
       <c r="Y22" s="45">
         <v>1133.85</v>
       </c>
-      <c r="Z22" s="39">
+      <c r="Z22" s="40">
         <f t="shared" si="0"/>
         <v>1133.85</v>
       </c>
@@ -32181,19 +32273,19 @@
       <c r="U23" s="25">
         <v>426</v>
       </c>
-      <c r="V23" s="43">
+      <c r="V23" s="44">
         <v>426</v>
       </c>
       <c r="W23" s="34">
         <v>359</v>
       </c>
-      <c r="X23" s="44">
+      <c r="X23" s="35">
         <v>359</v>
       </c>
       <c r="Y23" s="45">
         <v>359</v>
       </c>
-      <c r="Z23" s="39">
+      <c r="Z23" s="40">
         <f t="shared" si="0"/>
         <v>359</v>
       </c>
@@ -32259,19 +32351,19 @@
       <c r="U24" s="25">
         <v>456</v>
       </c>
-      <c r="V24" s="43">
+      <c r="V24" s="44">
         <v>456</v>
       </c>
       <c r="W24" s="34">
         <v>719</v>
       </c>
-      <c r="X24" s="44">
+      <c r="X24" s="35">
         <v>713</v>
       </c>
       <c r="Y24" s="45">
         <v>711</v>
       </c>
-      <c r="Z24" s="39">
+      <c r="Z24" s="40">
         <f t="shared" si="0"/>
         <v>456</v>
       </c>
@@ -32337,25 +32429,25 @@
       <c r="U25" s="25">
         <v>402</v>
       </c>
-      <c r="V25" s="43">
+      <c r="V25" s="44">
         <v>402</v>
       </c>
       <c r="W25" s="34">
         <v>413</v>
       </c>
-      <c r="X25" s="44">
+      <c r="X25" s="35">
         <v>413</v>
       </c>
       <c r="Y25" s="45">
         <v>413</v>
       </c>
-      <c r="Z25" s="39">
+      <c r="Z25" s="40">
         <f t="shared" si="0"/>
         <v>402</v>
       </c>
     </row>
     <row r="26" ht="15.75" spans="2:26">
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="42" t="s">
         <v>32</v>
       </c>
       <c r="C26" s="24">
@@ -32373,7 +32465,7 @@
       <c r="G26" s="2">
         <v>1979</v>
       </c>
-      <c r="H26" s="42">
+      <c r="H26" s="43">
         <v>1691</v>
       </c>
       <c r="I26" s="24">
@@ -32385,7 +32477,7 @@
       <c r="K26" s="2">
         <v>1691</v>
       </c>
-      <c r="L26" s="42">
+      <c r="L26" s="43">
         <v>1691</v>
       </c>
       <c r="M26" s="24">
@@ -32415,19 +32507,19 @@
       <c r="U26" s="25">
         <v>1548</v>
       </c>
-      <c r="V26" s="43">
+      <c r="V26" s="44">
         <v>1548</v>
       </c>
       <c r="W26" s="34">
         <v>1891</v>
       </c>
-      <c r="X26" s="44">
+      <c r="X26" s="35">
         <v>1891</v>
       </c>
       <c r="Y26" s="45">
         <v>1891</v>
       </c>
-      <c r="Z26" s="39">
+      <c r="Z26" s="40">
         <f t="shared" si="0"/>
         <v>1548</v>
       </c>
@@ -32451,7 +32543,7 @@
       <c r="G27" s="2">
         <v>21545.48</v>
       </c>
-      <c r="H27" s="42">
+      <c r="H27" s="43">
         <v>23146.59</v>
       </c>
       <c r="I27" s="24">
@@ -32463,7 +32555,7 @@
       <c r="K27" s="2">
         <v>23160.51</v>
       </c>
-      <c r="L27" s="42">
+      <c r="L27" s="43">
         <v>26964.52</v>
       </c>
       <c r="M27" s="24">
@@ -32493,19 +32585,19 @@
       <c r="U27" s="25">
         <v>21609.52</v>
       </c>
-      <c r="V27" s="43">
+      <c r="V27" s="44">
         <v>19866.06</v>
       </c>
       <c r="W27" s="34">
         <v>21433.97</v>
       </c>
-      <c r="X27" s="44">
+      <c r="X27" s="35">
         <v>20822.05</v>
       </c>
       <c r="Y27" s="45">
         <v>21413.97</v>
       </c>
-      <c r="Z27" s="39">
+      <c r="Z27" s="40">
         <f t="shared" si="0"/>
         <v>19866.06</v>
       </c>
@@ -32529,7 +32621,7 @@
       <c r="G28" s="2">
         <v>3142</v>
       </c>
-      <c r="H28" s="42">
+      <c r="H28" s="43">
         <v>3062</v>
       </c>
       <c r="I28" s="24">
@@ -32541,7 +32633,7 @@
       <c r="K28" s="2">
         <v>3062</v>
       </c>
-      <c r="L28" s="42">
+      <c r="L28" s="43">
         <v>2950</v>
       </c>
       <c r="M28" s="24">
@@ -32571,19 +32663,19 @@
       <c r="U28" s="25">
         <v>3199</v>
       </c>
-      <c r="V28" s="43">
+      <c r="V28" s="44">
         <v>3201</v>
       </c>
       <c r="W28" s="34">
         <v>3112</v>
       </c>
-      <c r="X28" s="44">
+      <c r="X28" s="35">
         <v>3112</v>
       </c>
       <c r="Y28" s="45">
         <v>3112</v>
       </c>
-      <c r="Z28" s="39">
+      <c r="Z28" s="40">
         <f t="shared" si="0"/>
         <v>2950</v>
       </c>
@@ -32607,7 +32699,7 @@
       <c r="G29" s="2">
         <v>5977</v>
       </c>
-      <c r="H29" s="42">
+      <c r="H29" s="43">
         <v>5381</v>
       </c>
       <c r="I29" s="24">
@@ -32619,7 +32711,7 @@
       <c r="K29" s="2">
         <v>5412</v>
       </c>
-      <c r="L29" s="42">
+      <c r="L29" s="43">
         <v>6289</v>
       </c>
       <c r="M29" s="24">
@@ -32649,19 +32741,19 @@
       <c r="U29" s="25">
         <v>6166</v>
       </c>
-      <c r="V29" s="43">
+      <c r="V29" s="44">
         <v>6030</v>
       </c>
       <c r="W29" s="34">
         <v>5977</v>
       </c>
-      <c r="X29" s="44">
+      <c r="X29" s="35">
         <v>5853</v>
       </c>
       <c r="Y29" s="45">
         <v>5977</v>
       </c>
-      <c r="Z29" s="39">
+      <c r="Z29" s="40">
         <f t="shared" si="0"/>
         <v>5216</v>
       </c>
@@ -32685,7 +32777,7 @@
       <c r="G30" s="2">
         <v>11256.35</v>
       </c>
-      <c r="H30" s="42">
+      <c r="H30" s="43">
         <v>10171.17</v>
       </c>
       <c r="I30" s="24">
@@ -32697,7 +32789,7 @@
       <c r="K30" s="2">
         <v>9795.47</v>
       </c>
-      <c r="L30" s="42">
+      <c r="L30" s="43">
         <v>10444.9</v>
       </c>
       <c r="M30" s="24">
@@ -32727,19 +32819,19 @@
       <c r="U30" s="25">
         <v>10419.42</v>
       </c>
-      <c r="V30" s="43">
+      <c r="V30" s="44">
         <v>10392.04</v>
       </c>
       <c r="W30" s="34">
         <v>11256.35</v>
       </c>
-      <c r="X30" s="44">
+      <c r="X30" s="35">
         <v>11058.9</v>
       </c>
       <c r="Y30" s="45">
         <v>10635.6</v>
       </c>
-      <c r="Z30" s="39">
+      <c r="Z30" s="40">
         <f t="shared" si="0"/>
         <v>9744.28</v>
       </c>
@@ -32763,7 +32855,7 @@
       <c r="G31" s="2">
         <v>15463.93</v>
       </c>
-      <c r="H31" s="42">
+      <c r="H31" s="43">
         <v>15194.75</v>
       </c>
       <c r="I31" s="24">
@@ -32775,7 +32867,7 @@
       <c r="K31" s="2">
         <v>15235.59</v>
       </c>
-      <c r="L31" s="42">
+      <c r="L31" s="43">
         <v>13836.8</v>
       </c>
       <c r="M31" s="24">
@@ -32805,19 +32897,19 @@
       <c r="U31" s="25">
         <v>14555.29</v>
       </c>
-      <c r="V31" s="43">
+      <c r="V31" s="44">
         <v>13859.2</v>
       </c>
       <c r="W31" s="34">
         <v>15150.99</v>
       </c>
-      <c r="X31" s="44">
+      <c r="X31" s="35">
         <v>14779.79</v>
       </c>
       <c r="Y31" s="45">
         <v>14147.15</v>
       </c>
-      <c r="Z31" s="39">
+      <c r="Z31" s="40">
         <f t="shared" si="0"/>
         <v>13836.8</v>
       </c>
@@ -32841,7 +32933,7 @@
       <c r="G32" s="2">
         <v>13519.19</v>
       </c>
-      <c r="H32" s="42">
+      <c r="H32" s="43">
         <v>15518.81</v>
       </c>
       <c r="I32" s="24">
@@ -32853,7 +32945,7 @@
       <c r="K32" s="2">
         <v>15796.78</v>
       </c>
-      <c r="L32" s="42">
+      <c r="L32" s="43">
         <v>15428.8</v>
       </c>
       <c r="M32" s="24">
@@ -32883,19 +32975,19 @@
       <c r="U32" s="25">
         <v>15913.5</v>
       </c>
-      <c r="V32" s="43">
+      <c r="V32" s="44">
         <v>15521.44</v>
       </c>
       <c r="W32" s="34">
         <v>13415.31</v>
       </c>
-      <c r="X32" s="44">
+      <c r="X32" s="35">
         <v>13433.2</v>
       </c>
       <c r="Y32" s="45">
         <v>13369.49</v>
       </c>
-      <c r="Z32" s="39">
+      <c r="Z32" s="40">
         <f t="shared" si="0"/>
         <v>13369.49</v>
       </c>
@@ -32919,7 +33011,7 @@
       <c r="G33" s="2">
         <v>11415.84</v>
       </c>
-      <c r="H33" s="42">
+      <c r="H33" s="43">
         <v>11529.81</v>
       </c>
       <c r="I33" s="24">
@@ -32931,7 +33023,7 @@
       <c r="K33" s="2">
         <v>11768</v>
       </c>
-      <c r="L33" s="42">
+      <c r="L33" s="43">
         <v>10913.61</v>
       </c>
       <c r="M33" s="24">
@@ -32961,19 +33053,19 @@
       <c r="U33" s="25">
         <v>12178.68</v>
       </c>
-      <c r="V33" s="43">
+      <c r="V33" s="44">
         <v>11812.97</v>
       </c>
       <c r="W33" s="34">
         <v>11346.86</v>
       </c>
-      <c r="X33" s="44">
+      <c r="X33" s="35">
         <v>11294.9</v>
       </c>
       <c r="Y33" s="45">
         <v>11113.03</v>
       </c>
-      <c r="Z33" s="39">
+      <c r="Z33" s="40">
         <f t="shared" si="0"/>
         <v>10639.58</v>
       </c>
@@ -32997,7 +33089,7 @@
       <c r="G34" s="2">
         <v>11979.07</v>
       </c>
-      <c r="H34" s="42">
+      <c r="H34" s="43">
         <v>13325.39</v>
       </c>
       <c r="I34" s="24">
@@ -33009,7 +33101,7 @@
       <c r="K34" s="2">
         <v>13373.56</v>
       </c>
-      <c r="L34" s="42">
+      <c r="L34" s="43">
         <v>11828.96</v>
       </c>
       <c r="M34" s="24">
@@ -33039,19 +33131,19 @@
       <c r="U34" s="25">
         <v>13393.48</v>
       </c>
-      <c r="V34" s="43">
+      <c r="V34" s="44">
         <v>13391.56</v>
       </c>
       <c r="W34" s="34">
         <v>11659.77</v>
       </c>
-      <c r="X34" s="44">
+      <c r="X34" s="35">
         <v>11567.82</v>
       </c>
       <c r="Y34" s="45">
         <v>11462.88</v>
       </c>
-      <c r="Z34" s="39">
+      <c r="Z34" s="40">
         <f t="shared" si="0"/>
         <v>11462.88</v>
       </c>
@@ -33075,7 +33167,7 @@
       <c r="G35" s="2">
         <v>16727.82</v>
       </c>
-      <c r="H35" s="42">
+      <c r="H35" s="43">
         <v>17045.05</v>
       </c>
       <c r="I35" s="24">
@@ -33087,7 +33179,7 @@
       <c r="K35" s="2">
         <v>17120.65</v>
       </c>
-      <c r="L35" s="42">
+      <c r="L35" s="43">
         <v>15996.61</v>
       </c>
       <c r="M35" s="24">
@@ -33117,19 +33209,19 @@
       <c r="U35" s="25">
         <v>15898.3</v>
       </c>
-      <c r="V35" s="43">
+      <c r="V35" s="44">
         <v>16248.17</v>
       </c>
       <c r="W35" s="34">
         <v>16500.14</v>
       </c>
-      <c r="X35" s="44">
+      <c r="X35" s="35">
         <v>15634.12</v>
       </c>
       <c r="Y35" s="45">
         <v>15093.27</v>
       </c>
-      <c r="Z35" s="39">
+      <c r="Z35" s="40">
         <f t="shared" si="0"/>
         <v>15093.27</v>
       </c>
@@ -33153,7 +33245,7 @@
       <c r="G36" s="2">
         <v>9412.28</v>
       </c>
-      <c r="H36" s="42">
+      <c r="H36" s="43">
         <v>11703.58</v>
       </c>
       <c r="I36" s="24">
@@ -33165,7 +33257,7 @@
       <c r="K36" s="2">
         <v>12035.93</v>
       </c>
-      <c r="L36" s="42">
+      <c r="L36" s="43">
         <v>10824.74</v>
       </c>
       <c r="M36" s="24">
@@ -33195,19 +33287,19 @@
       <c r="U36" s="25">
         <v>11809.74</v>
       </c>
-      <c r="V36" s="43">
+      <c r="V36" s="44">
         <v>10837.48</v>
       </c>
       <c r="W36" s="34">
         <v>9289.01</v>
       </c>
-      <c r="X36" s="44">
+      <c r="X36" s="35">
         <v>9289.01</v>
       </c>
       <c r="Y36" s="45">
         <v>9164.18</v>
       </c>
-      <c r="Z36" s="39">
+      <c r="Z36" s="40">
         <f t="shared" si="0"/>
         <v>9164.18</v>
       </c>
@@ -33231,7 +33323,7 @@
       <c r="G37" s="2">
         <v>10720.17</v>
       </c>
-      <c r="H37" s="42">
+      <c r="H37" s="43">
         <v>11197.73</v>
       </c>
       <c r="I37" s="24">
@@ -33243,7 +33335,7 @@
       <c r="K37" s="2">
         <v>11092.2</v>
       </c>
-      <c r="L37" s="42">
+      <c r="L37" s="43">
         <v>11197.73</v>
       </c>
       <c r="M37" s="24">
@@ -33273,19 +33365,19 @@
       <c r="U37" s="25">
         <v>10587.26</v>
       </c>
-      <c r="V37" s="43">
+      <c r="V37" s="44">
         <v>10587.26</v>
       </c>
       <c r="W37" s="34">
         <v>10636.85</v>
       </c>
-      <c r="X37" s="44">
+      <c r="X37" s="35">
         <v>10587.17</v>
       </c>
       <c r="Y37" s="45">
         <v>10205.07</v>
       </c>
-      <c r="Z37" s="39">
+      <c r="Z37" s="40">
         <f t="shared" si="0"/>
         <v>10205.07</v>
       </c>
@@ -33309,7 +33401,7 @@
       <c r="G38" s="2">
         <v>10023.72</v>
       </c>
-      <c r="H38" s="42">
+      <c r="H38" s="43">
         <v>10160.41</v>
       </c>
       <c r="I38" s="24">
@@ -33321,7 +33413,7 @@
       <c r="K38" s="2">
         <v>9535.85</v>
       </c>
-      <c r="L38" s="42">
+      <c r="L38" s="43">
         <v>9449.58</v>
       </c>
       <c r="M38" s="24">
@@ -33351,19 +33443,19 @@
       <c r="U38" s="25">
         <v>9401.94</v>
       </c>
-      <c r="V38" s="43">
+      <c r="V38" s="44">
         <v>9215.14</v>
       </c>
       <c r="W38" s="34">
         <v>10010.68</v>
       </c>
-      <c r="X38" s="44">
+      <c r="X38" s="35">
         <v>10007.14</v>
       </c>
       <c r="Y38" s="45">
         <v>9687.27</v>
       </c>
-      <c r="Z38" s="39">
+      <c r="Z38" s="40">
         <f t="shared" ref="Z38:Z66" si="1">SMALL(D38:Y38,1)</f>
         <v>9215.14</v>
       </c>
@@ -33387,7 +33479,7 @@
       <c r="G39" s="2">
         <v>5835.44</v>
       </c>
-      <c r="H39" s="42">
+      <c r="H39" s="43">
         <v>5290</v>
       </c>
       <c r="I39" s="24">
@@ -33399,7 +33491,7 @@
       <c r="K39" s="2">
         <v>5350.1</v>
       </c>
-      <c r="L39" s="42">
+      <c r="L39" s="43">
         <v>5838.62</v>
       </c>
       <c r="M39" s="24">
@@ -33429,19 +33521,19 @@
       <c r="U39" s="25">
         <v>5234.72</v>
       </c>
-      <c r="V39" s="43">
+      <c r="V39" s="44">
         <v>5055.67</v>
       </c>
       <c r="W39" s="34">
         <v>5694.94</v>
       </c>
-      <c r="X39" s="44">
+      <c r="X39" s="35">
         <v>5652.66</v>
       </c>
       <c r="Y39" s="45">
         <v>5538.45</v>
       </c>
-      <c r="Z39" s="39">
+      <c r="Z39" s="40">
         <f t="shared" si="1"/>
         <v>5055.67</v>
       </c>
@@ -33465,7 +33557,7 @@
       <c r="G40" s="2">
         <v>22398.66</v>
       </c>
-      <c r="H40" s="42">
+      <c r="H40" s="43">
         <v>20659.25</v>
       </c>
       <c r="I40" s="24">
@@ -33477,7 +33569,7 @@
       <c r="K40" s="2">
         <v>20562.68</v>
       </c>
-      <c r="L40" s="42">
+      <c r="L40" s="43">
         <v>21122.47</v>
       </c>
       <c r="M40" s="24">
@@ -33507,19 +33599,19 @@
       <c r="U40" s="25">
         <v>20839.81</v>
       </c>
-      <c r="V40" s="43">
+      <c r="V40" s="44">
         <v>19911.69</v>
       </c>
       <c r="W40" s="34">
         <v>21911.44</v>
       </c>
-      <c r="X40" s="44">
+      <c r="X40" s="35">
         <v>21276.16</v>
       </c>
       <c r="Y40" s="45">
         <v>20553.81</v>
       </c>
-      <c r="Z40" s="39">
+      <c r="Z40" s="40">
         <f t="shared" si="1"/>
         <v>19870.16</v>
       </c>
@@ -33543,7 +33635,7 @@
       <c r="G41" s="2">
         <v>28205.78</v>
       </c>
-      <c r="H41" s="42">
+      <c r="H41" s="43">
         <v>27917.4</v>
       </c>
       <c r="I41" s="24" t="s">
@@ -33591,13 +33683,13 @@
       <c r="W41" s="34">
         <v>27953.95</v>
       </c>
-      <c r="X41" s="44">
+      <c r="X41" s="35">
         <v>27864.47</v>
       </c>
       <c r="Y41" s="45">
         <v>27610.91</v>
       </c>
-      <c r="Z41" s="39">
+      <c r="Z41" s="40">
         <f t="shared" si="1"/>
         <v>27610.91</v>
       </c>
@@ -33621,7 +33713,7 @@
       <c r="G42" s="2">
         <v>1277</v>
       </c>
-      <c r="H42" s="42">
+      <c r="H42" s="43">
         <v>1219</v>
       </c>
       <c r="I42" s="24">
@@ -33633,7 +33725,7 @@
       <c r="K42" s="2">
         <v>1241</v>
       </c>
-      <c r="L42" s="42">
+      <c r="L42" s="43">
         <v>1298</v>
       </c>
       <c r="M42" s="24">
@@ -33663,25 +33755,25 @@
       <c r="U42" s="25">
         <v>1505</v>
       </c>
-      <c r="V42" s="43">
+      <c r="V42" s="44">
         <v>1434</v>
       </c>
       <c r="W42" s="34">
         <v>1272</v>
       </c>
-      <c r="X42" s="44">
+      <c r="X42" s="35">
         <v>1268</v>
       </c>
       <c r="Y42" s="45">
         <v>1254</v>
       </c>
-      <c r="Z42" s="39">
+      <c r="Z42" s="40">
         <f t="shared" si="1"/>
         <v>1161</v>
       </c>
     </row>
     <row r="43" ht="15.75" spans="2:26">
-      <c r="B43" s="41" t="s">
+      <c r="B43" s="42" t="s">
         <v>49</v>
       </c>
       <c r="C43" s="21">
@@ -33741,19 +33833,19 @@
       <c r="U43" s="25">
         <v>50744.31</v>
       </c>
-      <c r="V43" s="43">
+      <c r="V43" s="44">
         <v>48864.85</v>
       </c>
       <c r="W43" s="34">
         <v>42006.67</v>
       </c>
-      <c r="X43" s="44">
+      <c r="X43" s="35">
         <v>42006.67</v>
       </c>
       <c r="Y43" s="45">
         <v>42006.67</v>
       </c>
-      <c r="Z43" s="39">
+      <c r="Z43" s="40">
         <f t="shared" si="1"/>
         <v>42006.67</v>
       </c>
@@ -33819,19 +33911,19 @@
       <c r="U44" s="25">
         <v>14221.33</v>
       </c>
-      <c r="V44" s="43">
+      <c r="V44" s="44">
         <v>14236.2</v>
       </c>
       <c r="W44" s="34">
         <v>16206.21</v>
       </c>
-      <c r="X44" s="44">
+      <c r="X44" s="35">
         <v>15796.61</v>
       </c>
       <c r="Y44" s="45">
         <v>15228.03</v>
       </c>
-      <c r="Z44" s="39">
+      <c r="Z44" s="40">
         <f t="shared" si="1"/>
         <v>14221.33</v>
       </c>
@@ -33897,19 +33989,19 @@
       <c r="U45" s="25">
         <v>22900.39</v>
       </c>
-      <c r="V45" s="43">
+      <c r="V45" s="44">
         <v>22940.02</v>
       </c>
       <c r="W45" s="34">
         <v>23381.89</v>
       </c>
-      <c r="X45" s="44">
+      <c r="X45" s="35">
         <v>23318.47</v>
       </c>
       <c r="Y45" s="45">
         <v>23381.89</v>
       </c>
-      <c r="Z45" s="39">
+      <c r="Z45" s="40">
         <f t="shared" si="1"/>
         <v>21887.89</v>
       </c>
@@ -33975,19 +34067,19 @@
       <c r="U46" s="25">
         <v>52630.18</v>
       </c>
-      <c r="V46" s="43">
+      <c r="V46" s="44">
         <v>52366.9</v>
       </c>
       <c r="W46" s="34">
         <v>53346.76</v>
       </c>
-      <c r="X46" s="44">
+      <c r="X46" s="35">
         <v>46726.91</v>
       </c>
       <c r="Y46" s="45">
         <v>50028.99</v>
       </c>
-      <c r="Z46" s="39">
+      <c r="Z46" s="40">
         <f t="shared" si="1"/>
         <v>46500.98</v>
       </c>
@@ -34053,19 +34145,19 @@
       <c r="U47" s="25">
         <v>26533.4</v>
       </c>
-      <c r="V47" s="43">
+      <c r="V47" s="44">
         <v>26582.43</v>
       </c>
       <c r="W47" s="34">
         <v>26194.21</v>
       </c>
-      <c r="X47" s="44">
+      <c r="X47" s="35">
         <v>26160.66</v>
       </c>
       <c r="Y47" s="45">
         <v>26183.85</v>
       </c>
-      <c r="Z47" s="39">
+      <c r="Z47" s="40">
         <f t="shared" si="1"/>
         <v>26160.66</v>
       </c>
@@ -34131,19 +34223,19 @@
       <c r="U48" s="25">
         <v>33023.75</v>
       </c>
-      <c r="V48" s="43">
+      <c r="V48" s="44">
         <v>32889.71</v>
       </c>
       <c r="W48" s="34">
         <v>33363.86</v>
       </c>
-      <c r="X48" s="44">
+      <c r="X48" s="35">
         <v>32745.67</v>
       </c>
       <c r="Y48" s="45">
         <v>32794.53</v>
       </c>
-      <c r="Z48" s="39">
+      <c r="Z48" s="40">
         <f t="shared" si="1"/>
         <v>32745.67</v>
       </c>
@@ -34209,19 +34301,19 @@
       <c r="U49" s="25">
         <v>45053.7</v>
       </c>
-      <c r="V49" s="43">
+      <c r="V49" s="44">
         <v>45615.73</v>
       </c>
       <c r="W49" s="34">
         <v>47230.26</v>
       </c>
-      <c r="X49" s="44">
+      <c r="X49" s="35">
         <v>46053.87</v>
       </c>
       <c r="Y49" s="45">
         <v>44894.79</v>
       </c>
-      <c r="Z49" s="39">
+      <c r="Z49" s="40">
         <f t="shared" si="1"/>
         <v>44894.79</v>
       </c>
@@ -34287,19 +34379,19 @@
       <c r="U50" s="25">
         <v>25681.09</v>
       </c>
-      <c r="V50" s="43">
+      <c r="V50" s="44">
         <v>24375.1</v>
       </c>
       <c r="W50" s="34">
         <v>22934.79</v>
       </c>
-      <c r="X50" s="44">
+      <c r="X50" s="35">
         <v>21889.15</v>
       </c>
       <c r="Y50" s="45">
         <v>22362.5</v>
       </c>
-      <c r="Z50" s="39">
+      <c r="Z50" s="40">
         <f t="shared" si="1"/>
         <v>21297.39</v>
       </c>
@@ -34365,19 +34457,19 @@
       <c r="U51" s="25">
         <v>25762.61</v>
       </c>
-      <c r="V51" s="43">
+      <c r="V51" s="44">
         <v>25536.99</v>
       </c>
       <c r="W51" s="34">
         <v>25638.87</v>
       </c>
-      <c r="X51" s="44">
+      <c r="X51" s="35">
         <v>24635.81</v>
       </c>
       <c r="Y51" s="45">
         <v>24024.05</v>
       </c>
-      <c r="Z51" s="39">
+      <c r="Z51" s="40">
         <f t="shared" si="1"/>
         <v>23600.58</v>
       </c>
@@ -34443,19 +34535,19 @@
       <c r="U52" s="25">
         <v>41769.18</v>
       </c>
-      <c r="V52" s="43">
+      <c r="V52" s="44">
         <v>42206.22</v>
       </c>
       <c r="W52" s="34">
         <v>40125.44</v>
       </c>
-      <c r="X52" s="44">
+      <c r="X52" s="35">
         <v>39631.24</v>
       </c>
       <c r="Y52" s="45">
         <v>39417.08</v>
       </c>
-      <c r="Z52" s="39">
+      <c r="Z52" s="40">
         <f t="shared" si="1"/>
         <v>39417.08</v>
       </c>
@@ -34527,13 +34619,13 @@
       <c r="W53" s="34">
         <v>127508.36</v>
       </c>
-      <c r="X53" s="44">
+      <c r="X53" s="35">
         <v>127362.09</v>
       </c>
       <c r="Y53" s="45">
         <v>124946.91</v>
       </c>
-      <c r="Z53" s="39">
+      <c r="Z53" s="40">
         <f t="shared" si="1"/>
         <v>124946.91</v>
       </c>
@@ -34599,19 +34691,19 @@
       <c r="U54" s="25">
         <v>631.96</v>
       </c>
-      <c r="V54" s="43">
+      <c r="V54" s="44">
         <v>625.72</v>
       </c>
       <c r="W54" s="34">
         <v>586.01</v>
       </c>
-      <c r="X54" s="44">
+      <c r="X54" s="35">
         <v>583.69</v>
       </c>
       <c r="Y54" s="45">
         <v>573.16</v>
       </c>
-      <c r="Z54" s="39">
+      <c r="Z54" s="40">
         <f t="shared" si="1"/>
         <v>571.6</v>
       </c>
@@ -34677,19 +34769,19 @@
       <c r="U55" s="25">
         <v>1230.56</v>
       </c>
-      <c r="V55" s="43">
+      <c r="V55" s="44">
         <v>1250.85</v>
       </c>
       <c r="W55" s="34">
         <v>1135.33</v>
       </c>
-      <c r="X55" s="44">
+      <c r="X55" s="35">
         <v>1133.9</v>
       </c>
       <c r="Y55" s="45">
         <v>1125.18</v>
       </c>
-      <c r="Z55" s="39">
+      <c r="Z55" s="40">
         <f t="shared" si="1"/>
         <v>1125.18</v>
       </c>
@@ -34755,19 +34847,19 @@
       <c r="U56" s="25">
         <v>3615.8</v>
       </c>
-      <c r="V56" s="43">
+      <c r="V56" s="44">
         <v>3605.48</v>
       </c>
       <c r="W56" s="34">
         <v>3403.96</v>
       </c>
-      <c r="X56" s="44">
+      <c r="X56" s="35">
         <v>3365.75</v>
       </c>
       <c r="Y56" s="45">
         <v>3322.11</v>
       </c>
-      <c r="Z56" s="39">
+      <c r="Z56" s="40">
         <f t="shared" si="1"/>
         <v>3322.11</v>
       </c>
@@ -34817,19 +34909,19 @@
       <c r="U57" s="25">
         <v>4870.89</v>
       </c>
-      <c r="V57" s="43">
+      <c r="V57" s="44">
         <v>4920.37</v>
       </c>
       <c r="W57" s="34">
         <v>4586.79</v>
       </c>
-      <c r="X57" s="44">
+      <c r="X57" s="35">
         <v>4504.4</v>
       </c>
       <c r="Y57" s="45">
         <v>4495.24</v>
       </c>
-      <c r="Z57" s="39">
+      <c r="Z57" s="40">
         <f t="shared" si="1"/>
         <v>4472.01</v>
       </c>
@@ -34895,19 +34987,19 @@
       <c r="U58" s="25">
         <v>10272</v>
       </c>
-      <c r="V58" s="43">
+      <c r="V58" s="44">
         <v>10010</v>
       </c>
       <c r="W58" s="34">
         <v>10256</v>
       </c>
-      <c r="X58" s="44">
+      <c r="X58" s="35">
         <v>10227</v>
       </c>
       <c r="Y58" s="45">
         <v>10222</v>
       </c>
-      <c r="Z58" s="39">
+      <c r="Z58" s="40">
         <f t="shared" si="1"/>
         <v>10010</v>
       </c>
@@ -34973,19 +35065,19 @@
       <c r="U59" s="25">
         <v>23089</v>
       </c>
-      <c r="V59" s="43">
+      <c r="V59" s="44">
         <v>22935</v>
       </c>
       <c r="W59" s="34">
         <v>23295</v>
       </c>
-      <c r="X59" s="44">
+      <c r="X59" s="35">
         <v>23195</v>
       </c>
       <c r="Y59" s="45">
         <v>22877</v>
       </c>
-      <c r="Z59" s="39">
+      <c r="Z59" s="40">
         <f t="shared" si="1"/>
         <v>22877</v>
       </c>
@@ -35057,13 +35149,13 @@
       <c r="W60" s="34">
         <v>46793</v>
       </c>
-      <c r="X60" s="44">
+      <c r="X60" s="35">
         <v>46793</v>
       </c>
       <c r="Y60" s="45">
         <v>46567</v>
       </c>
-      <c r="Z60" s="39">
+      <c r="Z60" s="40">
         <f t="shared" si="1"/>
         <v>46567</v>
       </c>
@@ -35129,19 +35221,19 @@
       <c r="U61" s="25">
         <v>243.1</v>
       </c>
-      <c r="V61" s="43">
+      <c r="V61" s="44">
         <v>243.1</v>
       </c>
       <c r="W61" s="34">
         <v>324.03</v>
       </c>
-      <c r="X61" s="44">
+      <c r="X61" s="35">
         <v>313.93</v>
       </c>
       <c r="Y61" s="45">
         <v>303.87</v>
       </c>
-      <c r="Z61" s="39">
+      <c r="Z61" s="40">
         <f t="shared" si="1"/>
         <v>243.1</v>
       </c>
@@ -35207,19 +35299,19 @@
       <c r="U62" s="25">
         <v>505</v>
       </c>
-      <c r="V62" s="43">
+      <c r="V62" s="44">
         <v>473</v>
       </c>
       <c r="W62" s="34">
         <v>425</v>
       </c>
-      <c r="X62" s="44">
+      <c r="X62" s="35">
         <v>425</v>
       </c>
       <c r="Y62" s="45">
         <v>425</v>
       </c>
-      <c r="Z62" s="39">
+      <c r="Z62" s="40">
         <f t="shared" si="1"/>
         <v>425</v>
       </c>
@@ -35285,19 +35377,19 @@
       <c r="U63" s="25">
         <v>63347.41</v>
       </c>
-      <c r="V63" s="43">
+      <c r="V63" s="44">
         <v>59631.2</v>
       </c>
       <c r="W63" s="34">
         <v>55500</v>
       </c>
-      <c r="X63" s="44">
+      <c r="X63" s="35">
         <v>55500</v>
       </c>
       <c r="Y63" s="45">
         <v>55500</v>
       </c>
-      <c r="Z63" s="39">
+      <c r="Z63" s="40">
         <f t="shared" si="1"/>
         <v>55500</v>
       </c>
@@ -35363,19 +35455,19 @@
       <c r="U64" s="25">
         <v>2028.57</v>
       </c>
-      <c r="V64" s="43">
+      <c r="V64" s="44">
         <v>2101.47</v>
       </c>
       <c r="W64" s="34">
         <v>1802.19</v>
       </c>
-      <c r="X64" s="44">
+      <c r="X64" s="35">
         <v>1801.98</v>
       </c>
       <c r="Y64" s="45">
         <v>1785.14</v>
       </c>
-      <c r="Z64" s="39">
+      <c r="Z64" s="40">
         <f t="shared" si="1"/>
         <v>1785.14</v>
       </c>
@@ -35441,19 +35533,19 @@
       <c r="U65" s="25">
         <v>1463.06</v>
       </c>
-      <c r="V65" s="43">
+      <c r="V65" s="44">
         <v>1463.06</v>
       </c>
       <c r="W65" s="34">
         <v>1981.71</v>
       </c>
-      <c r="X65" s="44">
+      <c r="X65" s="35">
         <v>1981.71</v>
       </c>
       <c r="Y65" s="45">
         <v>1981.71</v>
       </c>
-      <c r="Z65" s="39">
+      <c r="Z65" s="40">
         <f t="shared" si="1"/>
         <v>1463.06</v>
       </c>
@@ -35519,122 +35611,122 @@
       <c r="U66" s="25">
         <v>2171.85</v>
       </c>
-      <c r="V66" s="43">
+      <c r="V66" s="44">
         <v>2171.85</v>
       </c>
       <c r="W66" s="34">
         <v>2062.92</v>
       </c>
-      <c r="X66" s="44">
+      <c r="X66" s="35">
         <v>2062.92</v>
       </c>
       <c r="Y66" s="45">
         <v>2062.92</v>
       </c>
-      <c r="Z66" s="39">
+      <c r="Z66" s="40">
         <f t="shared" si="1"/>
         <v>2062.35</v>
       </c>
     </row>
     <row r="67" spans="2:26">
-      <c r="B67" s="37" t="s">
+      <c r="B67" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="C67" s="37"/>
-      <c r="D67" s="40">
+      <c r="C67" s="38"/>
+      <c r="D67" s="41">
         <v>6</v>
       </c>
-      <c r="E67" s="40">
+      <c r="E67" s="41">
         <v>9</v>
       </c>
-      <c r="F67" s="40">
+      <c r="F67" s="41">
         <v>10</v>
       </c>
-      <c r="G67" s="40">
+      <c r="G67" s="41">
         <v>5</v>
       </c>
-      <c r="H67" s="40">
+      <c r="H67" s="41">
         <v>2</v>
       </c>
-      <c r="I67" s="40">
+      <c r="I67" s="41">
         <v>7</v>
       </c>
-      <c r="J67" s="40">
+      <c r="J67" s="41">
         <v>4</v>
       </c>
-      <c r="K67" s="40">
+      <c r="K67" s="41">
         <v>1</v>
       </c>
-      <c r="L67" s="40">
+      <c r="L67" s="41">
         <v>7</v>
       </c>
-      <c r="M67" s="40">
+      <c r="M67" s="41">
         <v>11</v>
       </c>
-      <c r="N67" s="40">
+      <c r="N67" s="41">
         <v>6</v>
       </c>
-      <c r="O67" s="40">
+      <c r="O67" s="41">
         <v>1</v>
       </c>
-      <c r="P67" s="40">
+      <c r="P67" s="41">
         <v>0</v>
       </c>
-      <c r="Q67" s="40">
+      <c r="Q67" s="41">
         <v>1</v>
       </c>
-      <c r="R67" s="40">
+      <c r="R67" s="41">
         <v>1</v>
       </c>
-      <c r="S67" s="40">
+      <c r="S67" s="41">
         <v>4</v>
       </c>
-      <c r="T67" s="40">
+      <c r="T67" s="41">
         <v>7</v>
       </c>
-      <c r="U67" s="40">
+      <c r="U67" s="41">
         <v>7</v>
       </c>
-      <c r="V67" s="40">
+      <c r="V67" s="41">
         <v>12</v>
       </c>
-      <c r="W67" s="40">
+      <c r="W67" s="41">
         <v>9</v>
       </c>
-      <c r="X67" s="40">
+      <c r="X67" s="41">
         <v>12</v>
       </c>
-      <c r="Y67" s="40">
+      <c r="Y67" s="41">
         <v>24</v>
       </c>
-      <c r="Z67" s="40"/>
+      <c r="Z67" s="41"/>
     </row>
     <row r="68" ht="45" customHeight="1" spans="2:26">
-      <c r="B68" s="37"/>
-      <c r="C68" s="37"/>
-      <c r="D68" s="40"/>
-      <c r="E68" s="40"/>
-      <c r="F68" s="40"/>
-      <c r="G68" s="40"/>
-      <c r="H68" s="40"/>
-      <c r="I68" s="40"/>
-      <c r="J68" s="40"/>
-      <c r="K68" s="40"/>
-      <c r="L68" s="40"/>
-      <c r="M68" s="40"/>
-      <c r="N68" s="40"/>
-      <c r="O68" s="40"/>
-      <c r="P68" s="40"/>
-      <c r="Q68" s="40"/>
-      <c r="R68" s="40"/>
-      <c r="S68" s="40"/>
-      <c r="T68" s="40"/>
-      <c r="U68" s="40"/>
-      <c r="V68" s="40"/>
-      <c r="W68" s="40"/>
-      <c r="X68" s="40"/>
-      <c r="Y68" s="40"/>
-      <c r="Z68" s="40"/>
+      <c r="B68" s="38"/>
+      <c r="C68" s="38"/>
+      <c r="D68" s="41"/>
+      <c r="E68" s="41"/>
+      <c r="F68" s="41"/>
+      <c r="G68" s="41"/>
+      <c r="H68" s="41"/>
+      <c r="I68" s="41"/>
+      <c r="J68" s="41"/>
+      <c r="K68" s="41"/>
+      <c r="L68" s="41"/>
+      <c r="M68" s="41"/>
+      <c r="N68" s="41"/>
+      <c r="O68" s="41"/>
+      <c r="P68" s="41"/>
+      <c r="Q68" s="41"/>
+      <c r="R68" s="41"/>
+      <c r="S68" s="41"/>
+      <c r="T68" s="41"/>
+      <c r="U68" s="41"/>
+      <c r="V68" s="41"/>
+      <c r="W68" s="41"/>
+      <c r="X68" s="41"/>
+      <c r="Y68" s="41"/>
+      <c r="Z68" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="32">
@@ -35991,7 +36083,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="12" operator="containsText" id="{fdd0fb84-f9ef-464d-9971-d3c994326e6f}">
+          <x14:cfRule type="containsText" priority="12" operator="containsText" id="{e064ef3e-80b0-4d0a-b6d8-d2429083cd4c}">
             <xm:f>NOT(ISERROR(SEARCH($Z$56,D56)))</xm:f>
             <xm:f>$Z$56</xm:f>
             <x14:dxf>
@@ -36018,8 +36110,8 @@
   <sheetPr/>
   <dimension ref="B2:Z68"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="L31" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4:X66"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="Y69" sqref="Y69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -36097,7 +36189,7 @@
       </c>
       <c r="X3" s="22"/>
       <c r="Y3" s="26"/>
-      <c r="Z3" s="35" t="s">
+      <c r="Z3" s="36" t="s">
         <v>8</v>
       </c>
     </row>
@@ -36171,10 +36263,10 @@
       <c r="X4" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="Y4" s="36" t="s">
+      <c r="Y4" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="Z4" s="37"/>
+      <c r="Z4" s="38"/>
     </row>
     <row r="5" ht="15.75" spans="2:26">
       <c r="B5" s="2" t="s">
@@ -36243,13 +36335,13 @@
       <c r="W5" s="34">
         <v>2033.08</v>
       </c>
-      <c r="X5" s="34">
-        <v>2033.08</v>
-      </c>
-      <c r="Y5" s="38">
+      <c r="X5" s="35">
+        <v>2000.16</v>
+      </c>
+      <c r="Y5" s="39">
         <v>1963.43</v>
       </c>
-      <c r="Z5" s="39">
+      <c r="Z5" s="40">
         <f t="shared" ref="Z5:Z66" si="0">SMALL(D5:Y5,1)</f>
         <v>1961.72</v>
       </c>
@@ -36321,13 +36413,13 @@
       <c r="W6" s="34">
         <v>6926</v>
       </c>
-      <c r="X6" s="34">
-        <v>6926</v>
-      </c>
-      <c r="Y6" s="38">
+      <c r="X6" s="35">
+        <v>6736</v>
+      </c>
+      <c r="Y6" s="39">
         <v>6639</v>
       </c>
-      <c r="Z6" s="39">
+      <c r="Z6" s="40">
         <f t="shared" si="0"/>
         <v>5933</v>
       </c>
@@ -36399,13 +36491,13 @@
       <c r="W7" s="34">
         <v>21915</v>
       </c>
-      <c r="X7" s="34">
-        <v>21915</v>
-      </c>
-      <c r="Y7" s="38">
+      <c r="X7" s="35">
+        <v>21559</v>
+      </c>
+      <c r="Y7" s="39">
         <v>21190</v>
       </c>
-      <c r="Z7" s="39">
+      <c r="Z7" s="40">
         <f t="shared" si="0"/>
         <v>17680</v>
       </c>
@@ -36477,13 +36569,13 @@
       <c r="W8" s="34">
         <v>1048</v>
       </c>
-      <c r="X8" s="34">
+      <c r="X8" s="35">
         <v>1048</v>
       </c>
-      <c r="Y8" s="38">
+      <c r="Y8" s="39">
         <v>1048</v>
       </c>
-      <c r="Z8" s="39">
+      <c r="Z8" s="40">
         <f t="shared" si="0"/>
         <v>971</v>
       </c>
@@ -36555,13 +36647,13 @@
       <c r="W9" s="34">
         <v>1144</v>
       </c>
-      <c r="X9" s="34">
+      <c r="X9" s="35">
+        <v>1152</v>
+      </c>
+      <c r="Y9" s="39">
         <v>1144</v>
       </c>
-      <c r="Y9" s="38">
-        <v>1144</v>
-      </c>
-      <c r="Z9" s="39">
+      <c r="Z9" s="40">
         <f t="shared" si="0"/>
         <v>1103</v>
       </c>
@@ -36633,13 +36725,13 @@
       <c r="W10" s="34">
         <v>4160.05</v>
       </c>
-      <c r="X10" s="34">
+      <c r="X10" s="35">
         <v>4160.05</v>
       </c>
-      <c r="Y10" s="38">
+      <c r="Y10" s="39">
         <v>4056.67</v>
       </c>
-      <c r="Z10" s="39">
+      <c r="Z10" s="40">
         <f t="shared" si="0"/>
         <v>3870.51</v>
       </c>
@@ -36711,13 +36803,13 @@
       <c r="W11" s="34">
         <v>52825.73</v>
       </c>
-      <c r="X11" s="34">
-        <v>52825.73</v>
-      </c>
-      <c r="Y11" s="38">
+      <c r="X11" s="35">
+        <v>52004.99</v>
+      </c>
+      <c r="Y11" s="39">
         <v>51568.2</v>
       </c>
-      <c r="Z11" s="39">
+      <c r="Z11" s="40">
         <f t="shared" si="0"/>
         <v>50057.8</v>
       </c>
@@ -36789,13 +36881,13 @@
       <c r="W12" s="34">
         <v>11299</v>
       </c>
-      <c r="X12" s="34">
-        <v>11299</v>
-      </c>
-      <c r="Y12" s="38">
+      <c r="X12" s="35">
+        <v>11216</v>
+      </c>
+      <c r="Y12" s="39">
         <v>10754</v>
       </c>
-      <c r="Z12" s="39">
+      <c r="Z12" s="40">
         <f t="shared" si="0"/>
         <v>10754</v>
       </c>
@@ -36867,13 +36959,13 @@
       <c r="W13" s="34">
         <v>1480</v>
       </c>
-      <c r="X13" s="34">
+      <c r="X13" s="35">
+        <v>4920</v>
+      </c>
+      <c r="Y13" s="39">
         <v>1480</v>
       </c>
-      <c r="Y13" s="38">
-        <v>1480</v>
-      </c>
-      <c r="Z13" s="39">
+      <c r="Z13" s="40">
         <f t="shared" si="0"/>
         <v>1470</v>
       </c>
@@ -36945,13 +37037,13 @@
       <c r="W14" s="34">
         <v>1637.31</v>
       </c>
-      <c r="X14" s="34">
+      <c r="X14" s="35">
         <v>1637.31</v>
       </c>
-      <c r="Y14" s="38">
+      <c r="Y14" s="39">
         <v>1637.31</v>
       </c>
-      <c r="Z14" s="39">
+      <c r="Z14" s="40">
         <f t="shared" si="0"/>
         <v>1528.5</v>
       </c>
@@ -37023,13 +37115,13 @@
       <c r="W15" s="34">
         <v>4080.8</v>
       </c>
-      <c r="X15" s="34">
-        <v>4080.8</v>
-      </c>
-      <c r="Y15" s="38">
+      <c r="X15" s="35">
+        <v>4078.85</v>
+      </c>
+      <c r="Y15" s="39">
         <v>4069.56</v>
       </c>
-      <c r="Z15" s="39">
+      <c r="Z15" s="40">
         <f t="shared" si="0"/>
         <v>4069.56</v>
       </c>
@@ -37101,13 +37193,13 @@
       <c r="W16" s="34">
         <v>4833.89</v>
       </c>
-      <c r="X16" s="34">
-        <v>4833.89</v>
-      </c>
-      <c r="Y16" s="38">
+      <c r="X16" s="35">
+        <v>4738.2</v>
+      </c>
+      <c r="Y16" s="39">
         <v>4692.29</v>
       </c>
-      <c r="Z16" s="39">
+      <c r="Z16" s="40">
         <f t="shared" si="0"/>
         <v>4692.29</v>
       </c>
@@ -37179,13 +37271,13 @@
       <c r="W17" s="34">
         <v>458</v>
       </c>
-      <c r="X17" s="34">
-        <v>458</v>
-      </c>
-      <c r="Y17" s="38">
+      <c r="X17" s="35">
+        <v>442</v>
+      </c>
+      <c r="Y17" s="39">
         <v>435</v>
       </c>
-      <c r="Z17" s="39">
+      <c r="Z17" s="40">
         <f t="shared" si="0"/>
         <v>390</v>
       </c>
@@ -37257,13 +37349,13 @@
       <c r="W18" s="34">
         <v>288.64</v>
       </c>
-      <c r="X18" s="34">
+      <c r="X18" s="35">
         <v>288.64</v>
       </c>
-      <c r="Y18" s="38">
+      <c r="Y18" s="39">
         <v>288.64</v>
       </c>
-      <c r="Z18" s="39">
+      <c r="Z18" s="40">
         <f t="shared" si="0"/>
         <v>286.55</v>
       </c>
@@ -37335,13 +37427,13 @@
       <c r="W19" s="34">
         <v>343.69</v>
       </c>
-      <c r="X19" s="34">
+      <c r="X19" s="35">
         <v>343.69</v>
       </c>
-      <c r="Y19" s="38">
+      <c r="Y19" s="39">
         <v>343.35</v>
       </c>
-      <c r="Z19" s="39">
+      <c r="Z19" s="40">
         <f t="shared" si="0"/>
         <v>343.35</v>
       </c>
@@ -37413,15 +37505,15 @@
       <c r="W20" s="34">
         <v>439.61</v>
       </c>
-      <c r="X20" s="34">
-        <v>439.61</v>
-      </c>
-      <c r="Y20" s="38">
+      <c r="X20" s="35">
+        <v>433.87</v>
+      </c>
+      <c r="Y20" s="39">
         <v>437.71</v>
       </c>
-      <c r="Z20" s="39">
+      <c r="Z20" s="40">
         <f t="shared" si="0"/>
-        <v>434.91</v>
+        <v>433.87</v>
       </c>
     </row>
     <row r="21" ht="15.75" spans="2:26">
@@ -37491,13 +37583,13 @@
       <c r="W21" s="34">
         <v>689</v>
       </c>
-      <c r="X21" s="34">
-        <v>689</v>
-      </c>
-      <c r="Y21" s="38">
+      <c r="X21" s="35">
+        <v>640</v>
+      </c>
+      <c r="Y21" s="39">
         <v>564</v>
       </c>
-      <c r="Z21" s="39">
+      <c r="Z21" s="40">
         <f t="shared" si="0"/>
         <v>444</v>
       </c>
@@ -37569,13 +37661,13 @@
       <c r="W22" s="34">
         <v>1693.63</v>
       </c>
-      <c r="X22" s="34">
-        <v>1693.63</v>
-      </c>
-      <c r="Y22" s="38">
+      <c r="X22" s="35">
+        <v>1676.51</v>
+      </c>
+      <c r="Y22" s="39">
         <v>1668.14</v>
       </c>
-      <c r="Z22" s="39">
+      <c r="Z22" s="40">
         <f t="shared" si="0"/>
         <v>1668.14</v>
       </c>
@@ -37647,13 +37739,13 @@
       <c r="W23" s="34">
         <v>640</v>
       </c>
-      <c r="X23" s="34">
+      <c r="X23" s="35">
         <v>640</v>
       </c>
-      <c r="Y23" s="38">
+      <c r="Y23" s="39">
         <v>640</v>
       </c>
-      <c r="Z23" s="39">
+      <c r="Z23" s="40">
         <f t="shared" si="0"/>
         <v>640</v>
       </c>
@@ -37725,13 +37817,13 @@
       <c r="W24" s="34">
         <v>1657</v>
       </c>
-      <c r="X24" s="34">
-        <v>1657</v>
-      </c>
-      <c r="Y24" s="38">
+      <c r="X24" s="35">
+        <v>1651</v>
+      </c>
+      <c r="Y24" s="39">
         <v>1570</v>
       </c>
-      <c r="Z24" s="39">
+      <c r="Z24" s="40">
         <f t="shared" si="0"/>
         <v>1196</v>
       </c>
@@ -37803,13 +37895,13 @@
       <c r="W25" s="34">
         <v>794</v>
       </c>
-      <c r="X25" s="34">
+      <c r="X25" s="35">
         <v>794</v>
       </c>
-      <c r="Y25" s="38">
+      <c r="Y25" s="39">
         <v>794</v>
       </c>
-      <c r="Z25" s="39">
+      <c r="Z25" s="40">
         <f t="shared" si="0"/>
         <v>718</v>
       </c>
@@ -37881,13 +37973,13 @@
       <c r="W26" s="34">
         <v>3349</v>
       </c>
-      <c r="X26" s="34">
-        <v>3349</v>
-      </c>
-      <c r="Y26" s="38">
+      <c r="X26" s="35">
+        <v>3332</v>
+      </c>
+      <c r="Y26" s="39">
         <v>3221</v>
       </c>
-      <c r="Z26" s="39">
+      <c r="Z26" s="40">
         <f t="shared" si="0"/>
         <v>2880</v>
       </c>
@@ -37959,13 +38051,13 @@
       <c r="W27" s="34">
         <v>39332.67</v>
       </c>
-      <c r="X27" s="34">
-        <v>39332.67</v>
-      </c>
-      <c r="Y27" s="38">
+      <c r="X27" s="35">
+        <v>38761.5</v>
+      </c>
+      <c r="Y27" s="39">
         <v>39179.53</v>
       </c>
-      <c r="Z27" s="39">
+      <c r="Z27" s="40">
         <f t="shared" si="0"/>
         <v>36870.59</v>
       </c>
@@ -38037,13 +38129,13 @@
       <c r="W28" s="34">
         <v>4613</v>
       </c>
-      <c r="X28" s="34">
-        <v>4613</v>
-      </c>
-      <c r="Y28" s="38">
+      <c r="X28" s="35">
+        <v>4556</v>
+      </c>
+      <c r="Y28" s="39">
         <v>4554</v>
       </c>
-      <c r="Z28" s="39">
+      <c r="Z28" s="40">
         <f t="shared" si="0"/>
         <v>4554</v>
       </c>
@@ -38115,13 +38207,13 @@
       <c r="W29" s="34">
         <v>8140</v>
       </c>
-      <c r="X29" s="34">
-        <v>8140</v>
-      </c>
-      <c r="Y29" s="38">
+      <c r="X29" s="35">
+        <v>8203</v>
+      </c>
+      <c r="Y29" s="39">
         <v>7989</v>
       </c>
-      <c r="Z29" s="39">
+      <c r="Z29" s="40">
         <f t="shared" si="0"/>
         <v>7737</v>
       </c>
@@ -38193,13 +38285,13 @@
       <c r="W30" s="34">
         <v>17365.3</v>
       </c>
-      <c r="X30" s="34">
-        <v>17365.3</v>
-      </c>
-      <c r="Y30" s="38">
+      <c r="X30" s="35">
+        <v>17001.37</v>
+      </c>
+      <c r="Y30" s="39">
         <v>15424.61</v>
       </c>
-      <c r="Z30" s="39">
+      <c r="Z30" s="40">
         <f t="shared" si="0"/>
         <v>15424.61</v>
       </c>
@@ -38271,13 +38363,13 @@
       <c r="W31" s="34">
         <v>21761</v>
       </c>
-      <c r="X31" s="34">
-        <v>21761</v>
-      </c>
-      <c r="Y31" s="38">
+      <c r="X31" s="35">
+        <v>20282.34</v>
+      </c>
+      <c r="Y31" s="39">
         <v>20003.57</v>
       </c>
-      <c r="Z31" s="39">
+      <c r="Z31" s="40">
         <f t="shared" si="0"/>
         <v>20003.57</v>
       </c>
@@ -38349,13 +38441,13 @@
       <c r="W32" s="34">
         <v>20906.25</v>
       </c>
-      <c r="X32" s="34">
-        <v>20906.25</v>
-      </c>
-      <c r="Y32" s="38">
+      <c r="X32" s="35">
+        <v>20925.83</v>
+      </c>
+      <c r="Y32" s="39">
         <v>20815.59</v>
       </c>
-      <c r="Z32" s="39">
+      <c r="Z32" s="40">
         <f t="shared" si="0"/>
         <v>20815.59</v>
       </c>
@@ -38427,13 +38519,13 @@
       <c r="W33" s="34">
         <v>15998.15</v>
       </c>
-      <c r="X33" s="34">
-        <v>15998.15</v>
-      </c>
-      <c r="Y33" s="38">
+      <c r="X33" s="35">
         <v>15959.77</v>
       </c>
-      <c r="Z33" s="39">
+      <c r="Y33" s="39">
+        <v>15959.77</v>
+      </c>
+      <c r="Z33" s="40">
         <f t="shared" si="0"/>
         <v>15959.77</v>
       </c>
@@ -38505,13 +38597,13 @@
       <c r="W34" s="34">
         <v>17272.09</v>
       </c>
-      <c r="X34" s="34">
-        <v>17272.09</v>
-      </c>
-      <c r="Y34" s="38">
+      <c r="X34" s="35">
+        <v>17157.39</v>
+      </c>
+      <c r="Y34" s="39">
         <v>17073.31</v>
       </c>
-      <c r="Z34" s="39">
+      <c r="Z34" s="40">
         <f t="shared" si="0"/>
         <v>17073.31</v>
       </c>
@@ -38583,13 +38675,13 @@
       <c r="W35" s="34">
         <v>22374.47</v>
       </c>
-      <c r="X35" s="34">
-        <v>22374.47</v>
-      </c>
-      <c r="Y35" s="38">
+      <c r="X35" s="35">
+        <v>21705.05</v>
+      </c>
+      <c r="Y35" s="39">
         <v>21326.7</v>
       </c>
-      <c r="Z35" s="39">
+      <c r="Z35" s="40">
         <f t="shared" si="0"/>
         <v>21326.7</v>
       </c>
@@ -38661,13 +38753,13 @@
       <c r="W36" s="34">
         <v>14415.86</v>
       </c>
-      <c r="X36" s="34">
+      <c r="X36" s="35">
+        <v>14366.64</v>
+      </c>
+      <c r="Y36" s="39">
         <v>14415.86</v>
       </c>
-      <c r="Y36" s="38">
-        <v>14415.86</v>
-      </c>
-      <c r="Z36" s="39">
+      <c r="Z36" s="40">
         <f t="shared" si="0"/>
         <v>14305.64</v>
       </c>
@@ -38739,13 +38831,13 @@
       <c r="W37" s="34">
         <v>15472.1</v>
       </c>
-      <c r="X37" s="34">
-        <v>15472.1</v>
-      </c>
-      <c r="Y37" s="38">
+      <c r="X37" s="35">
+        <v>15422.42</v>
+      </c>
+      <c r="Y37" s="39">
         <v>14779.43</v>
       </c>
-      <c r="Z37" s="39">
+      <c r="Z37" s="40">
         <f t="shared" si="0"/>
         <v>14779.43</v>
       </c>
@@ -38817,13 +38909,13 @@
       <c r="W38" s="34">
         <v>16099.41</v>
       </c>
-      <c r="X38" s="34">
-        <v>16099.41</v>
-      </c>
-      <c r="Y38" s="38">
+      <c r="X38" s="35">
+        <v>16078.26</v>
+      </c>
+      <c r="Y38" s="39">
         <v>15758.39</v>
       </c>
-      <c r="Z38" s="39">
+      <c r="Z38" s="40">
         <f t="shared" si="0"/>
         <v>15400.35</v>
       </c>
@@ -38895,13 +38987,13 @@
       <c r="W39" s="34">
         <v>8694.41</v>
       </c>
-      <c r="X39" s="34">
-        <v>8694.41</v>
-      </c>
-      <c r="Y39" s="38">
+      <c r="X39" s="35">
+        <v>8652.13</v>
+      </c>
+      <c r="Y39" s="39">
         <v>8524.62</v>
       </c>
-      <c r="Z39" s="39">
+      <c r="Z39" s="40">
         <f t="shared" si="0"/>
         <v>8412.64</v>
       </c>
@@ -38973,13 +39065,13 @@
       <c r="W40" s="34">
         <v>31966.35</v>
       </c>
-      <c r="X40" s="34">
-        <v>31966.35</v>
-      </c>
-      <c r="Y40" s="38">
+      <c r="X40" s="35">
+        <v>31131.1</v>
+      </c>
+      <c r="Y40" s="39">
         <v>29868.93</v>
       </c>
-      <c r="Z40" s="39">
+      <c r="Z40" s="40">
         <f t="shared" si="0"/>
         <v>29868.93</v>
       </c>
@@ -39051,13 +39143,13 @@
       <c r="W41" s="34">
         <v>45402.17</v>
       </c>
-      <c r="X41" s="34">
-        <v>45402.17</v>
-      </c>
-      <c r="Y41" s="38">
+      <c r="X41" s="35">
+        <v>44671.02</v>
+      </c>
+      <c r="Y41" s="39">
         <v>43995.87</v>
       </c>
-      <c r="Z41" s="39">
+      <c r="Z41" s="40">
         <f t="shared" si="0"/>
         <v>43995.87</v>
       </c>
@@ -39129,13 +39221,13 @@
       <c r="W42" s="34">
         <v>2119</v>
       </c>
-      <c r="X42" s="34">
-        <v>2119</v>
-      </c>
-      <c r="Y42" s="38">
+      <c r="X42" s="35">
+        <v>2103</v>
+      </c>
+      <c r="Y42" s="39">
         <v>2076</v>
       </c>
-      <c r="Z42" s="39">
+      <c r="Z42" s="40">
         <f t="shared" si="0"/>
         <v>2012</v>
       </c>
@@ -39207,13 +39299,13 @@
       <c r="W43" s="34">
         <v>62483.34</v>
       </c>
-      <c r="X43" s="34">
-        <v>62483.34</v>
-      </c>
-      <c r="Y43" s="38">
+      <c r="X43" s="35">
+        <v>62372.47</v>
+      </c>
+      <c r="Y43" s="39">
         <v>61124.81</v>
       </c>
-      <c r="Z43" s="39">
+      <c r="Z43" s="40">
         <f t="shared" si="0"/>
         <v>61124.81</v>
       </c>
@@ -39285,13 +39377,13 @@
       <c r="W44" s="34">
         <v>31934.72</v>
       </c>
-      <c r="X44" s="34">
-        <v>31934.72</v>
-      </c>
-      <c r="Y44" s="38">
+      <c r="X44" s="35">
+        <v>31377.82</v>
+      </c>
+      <c r="Y44" s="39">
         <v>30005.9</v>
       </c>
-      <c r="Z44" s="39">
+      <c r="Z44" s="40">
         <f t="shared" si="0"/>
         <v>29207.41</v>
       </c>
@@ -39363,15 +39455,15 @@
       <c r="W45" s="34">
         <v>37381.25</v>
       </c>
-      <c r="X45" s="34">
-        <v>37381.25</v>
-      </c>
-      <c r="Y45" s="38">
+      <c r="X45" s="35">
+        <v>37357.65</v>
+      </c>
+      <c r="Y45" s="39">
         <v>37384.06</v>
       </c>
-      <c r="Z45" s="39">
+      <c r="Z45" s="40">
         <f t="shared" si="0"/>
-        <v>37381.25</v>
+        <v>37357.65</v>
       </c>
     </row>
     <row r="46" ht="15.75" spans="2:26">
@@ -39441,13 +39533,13 @@
       <c r="W46" s="34">
         <v>77341.66</v>
       </c>
-      <c r="X46" s="34">
-        <v>77341.66</v>
-      </c>
-      <c r="Y46" s="38">
+      <c r="X46" s="35">
+        <v>71885.89</v>
+      </c>
+      <c r="Y46" s="39">
         <v>71134.44</v>
       </c>
-      <c r="Z46" s="39">
+      <c r="Z46" s="40">
         <f t="shared" si="0"/>
         <v>71134.44</v>
       </c>
@@ -39519,15 +39611,15 @@
       <c r="W47" s="34">
         <v>40742.95</v>
       </c>
-      <c r="X47" s="34">
-        <v>40742.95</v>
-      </c>
-      <c r="Y47" s="38">
+      <c r="X47" s="35">
+        <v>40491.29</v>
+      </c>
+      <c r="Y47" s="39">
         <v>40732.59</v>
       </c>
-      <c r="Z47" s="39">
+      <c r="Z47" s="40">
         <f t="shared" si="0"/>
-        <v>40732.59</v>
+        <v>40491.29</v>
       </c>
     </row>
     <row r="48" ht="15.75" spans="2:26">
@@ -39597,13 +39689,13 @@
       <c r="W48" s="34">
         <v>48977.97</v>
       </c>
-      <c r="X48" s="34">
-        <v>48977.97</v>
-      </c>
-      <c r="Y48" s="38">
+      <c r="X48" s="35">
+        <v>46542.14</v>
+      </c>
+      <c r="Y48" s="39">
         <v>46440.38</v>
       </c>
-      <c r="Z48" s="39">
+      <c r="Z48" s="40">
         <f t="shared" si="0"/>
         <v>46440.38</v>
       </c>
@@ -39675,13 +39767,13 @@
       <c r="W49" s="34">
         <v>56683.88</v>
       </c>
-      <c r="X49" s="34">
-        <v>56683.88</v>
-      </c>
-      <c r="Y49" s="38">
+      <c r="X49" s="35">
+        <v>54352.23</v>
+      </c>
+      <c r="Y49" s="39">
         <v>52900.33</v>
       </c>
-      <c r="Z49" s="39">
+      <c r="Z49" s="40">
         <f t="shared" si="0"/>
         <v>52900.33</v>
       </c>
@@ -39753,13 +39845,13 @@
       <c r="W50" s="34">
         <v>35694.34</v>
       </c>
-      <c r="X50" s="34">
-        <v>35694.34</v>
-      </c>
-      <c r="Y50" s="38">
+      <c r="X50" s="35">
+        <v>34823.02</v>
+      </c>
+      <c r="Y50" s="39">
         <v>34260.78</v>
       </c>
-      <c r="Z50" s="39">
+      <c r="Z50" s="40">
         <f t="shared" si="0"/>
         <v>32757.94</v>
       </c>
@@ -39831,13 +39923,13 @@
       <c r="W51" s="34">
         <v>37167.58</v>
       </c>
-      <c r="X51" s="34">
-        <v>37167.58</v>
-      </c>
-      <c r="Y51" s="38">
+      <c r="X51" s="35">
+        <v>36127.67</v>
+      </c>
+      <c r="Y51" s="39">
         <v>35472.09</v>
       </c>
-      <c r="Z51" s="39">
+      <c r="Z51" s="40">
         <f t="shared" si="0"/>
         <v>35472.09</v>
       </c>
@@ -39909,13 +40001,13 @@
       <c r="W52" s="34">
         <v>64457.57</v>
       </c>
-      <c r="X52" s="34">
-        <v>64457.57</v>
-      </c>
-      <c r="Y52" s="38">
+      <c r="X52" s="35">
+        <v>63411.27</v>
+      </c>
+      <c r="Y52" s="39">
         <v>63382.57</v>
       </c>
-      <c r="Z52" s="39">
+      <c r="Z52" s="40">
         <f t="shared" si="0"/>
         <v>61031.56</v>
       </c>
@@ -39987,13 +40079,13 @@
       <c r="W53" s="34">
         <v>200675.68</v>
       </c>
-      <c r="X53" s="34">
-        <v>200675.68</v>
-      </c>
-      <c r="Y53" s="38">
+      <c r="X53" s="35">
+        <v>197347.5</v>
+      </c>
+      <c r="Y53" s="39">
         <v>192478.62</v>
       </c>
-      <c r="Z53" s="39">
+      <c r="Z53" s="40">
         <f t="shared" si="0"/>
         <v>192478.62</v>
       </c>
@@ -40065,13 +40157,13 @@
       <c r="W54" s="34">
         <v>891.6</v>
       </c>
-      <c r="X54" s="34">
-        <v>891.6</v>
-      </c>
-      <c r="Y54" s="38">
+      <c r="X54" s="35">
+        <v>899.83</v>
+      </c>
+      <c r="Y54" s="39">
         <v>878.76</v>
       </c>
-      <c r="Z54" s="39">
+      <c r="Z54" s="40">
         <f t="shared" si="0"/>
         <v>878.76</v>
       </c>
@@ -40143,13 +40235,13 @@
       <c r="W55" s="34">
         <v>1695.28</v>
       </c>
-      <c r="X55" s="34">
-        <v>1695.28</v>
-      </c>
-      <c r="Y55" s="38">
+      <c r="X55" s="35">
+        <v>1693.85</v>
+      </c>
+      <c r="Y55" s="39">
         <v>1685.13</v>
       </c>
-      <c r="Z55" s="39">
+      <c r="Z55" s="40">
         <f t="shared" si="0"/>
         <v>1685.13</v>
       </c>
@@ -40221,13 +40313,13 @@
       <c r="W56" s="34">
         <v>5709.24</v>
       </c>
-      <c r="X56" s="34">
-        <v>5709.24</v>
-      </c>
-      <c r="Y56" s="38">
+      <c r="X56" s="35">
+        <v>5510.21</v>
+      </c>
+      <c r="Y56" s="39">
         <v>5215.31</v>
       </c>
-      <c r="Z56" s="39">
+      <c r="Z56" s="40">
         <f t="shared" si="0"/>
         <v>5215.22</v>
       </c>
@@ -40293,13 +40385,13 @@
       <c r="W57" s="34">
         <v>7148.34</v>
       </c>
-      <c r="X57" s="34">
-        <v>7148.34</v>
-      </c>
-      <c r="Y57" s="38">
+      <c r="X57" s="35">
+        <v>6977.89</v>
+      </c>
+      <c r="Y57" s="39">
         <v>6855.65</v>
       </c>
-      <c r="Z57" s="39">
+      <c r="Z57" s="40">
         <f t="shared" si="0"/>
         <v>6836.76</v>
       </c>
@@ -40371,13 +40463,13 @@
       <c r="W58" s="34">
         <v>15823</v>
       </c>
-      <c r="X58" s="34">
-        <v>15823</v>
-      </c>
-      <c r="Y58" s="38">
+      <c r="X58" s="35">
+        <v>15799</v>
+      </c>
+      <c r="Y58" s="39">
         <v>15709</v>
       </c>
-      <c r="Z58" s="39">
+      <c r="Z58" s="40">
         <f t="shared" si="0"/>
         <v>15324</v>
       </c>
@@ -40449,13 +40541,13 @@
       <c r="W59" s="34">
         <v>36192</v>
       </c>
-      <c r="X59" s="34">
-        <v>36192</v>
-      </c>
-      <c r="Y59" s="38">
+      <c r="X59" s="35">
+        <v>36021</v>
+      </c>
+      <c r="Y59" s="39">
         <v>35653</v>
       </c>
-      <c r="Z59" s="39">
+      <c r="Z59" s="40">
         <f t="shared" si="0"/>
         <v>35050</v>
       </c>
@@ -40527,13 +40619,13 @@
       <c r="W60" s="34">
         <v>70411</v>
       </c>
-      <c r="X60" s="34">
-        <v>70411</v>
-      </c>
-      <c r="Y60" s="38">
+      <c r="X60" s="35">
+        <v>70263</v>
+      </c>
+      <c r="Y60" s="39">
         <v>70086</v>
       </c>
-      <c r="Z60" s="39">
+      <c r="Z60" s="40">
         <f t="shared" si="0"/>
         <v>70086</v>
       </c>
@@ -40605,13 +40697,13 @@
       <c r="W61" s="34">
         <v>496.68</v>
       </c>
-      <c r="X61" s="34">
-        <v>496.68</v>
-      </c>
-      <c r="Y61" s="38">
+      <c r="X61" s="35">
+        <v>494.91</v>
+      </c>
+      <c r="Y61" s="39">
         <v>473.66</v>
       </c>
-      <c r="Z61" s="39">
+      <c r="Z61" s="40">
         <f t="shared" si="0"/>
         <v>433.59</v>
       </c>
@@ -40683,13 +40775,13 @@
       <c r="W62" s="34">
         <v>732</v>
       </c>
-      <c r="X62" s="34">
+      <c r="X62" s="35">
+        <v>720</v>
+      </c>
+      <c r="Y62" s="39">
         <v>732</v>
       </c>
-      <c r="Y62" s="38">
-        <v>732</v>
-      </c>
-      <c r="Z62" s="39">
+      <c r="Z62" s="40">
         <f t="shared" si="0"/>
         <v>719</v>
       </c>
@@ -40761,13 +40853,13 @@
       <c r="W63" s="34">
         <v>87783.6</v>
       </c>
-      <c r="X63" s="34">
+      <c r="X63" s="35">
         <v>87783.6</v>
       </c>
-      <c r="Y63" s="38">
+      <c r="Y63" s="39">
         <v>86585.04</v>
       </c>
-      <c r="Z63" s="39">
+      <c r="Z63" s="40">
         <f t="shared" si="0"/>
         <v>86585.04</v>
       </c>
@@ -40839,13 +40931,13 @@
       <c r="W64" s="34">
         <v>2778.47</v>
       </c>
-      <c r="X64" s="34">
-        <v>2778.47</v>
-      </c>
-      <c r="Y64" s="38">
+      <c r="X64" s="35">
+        <v>2739.82</v>
+      </c>
+      <c r="Y64" s="39">
         <v>2694.69</v>
       </c>
-      <c r="Z64" s="39">
+      <c r="Z64" s="40">
         <f t="shared" si="0"/>
         <v>2694.69</v>
       </c>
@@ -40917,13 +41009,13 @@
       <c r="W65" s="34">
         <v>2741.1</v>
       </c>
-      <c r="X65" s="34">
+      <c r="X65" s="35">
         <v>2741.1</v>
       </c>
-      <c r="Y65" s="38">
+      <c r="Y65" s="39">
         <v>2741.1</v>
       </c>
-      <c r="Z65" s="39">
+      <c r="Z65" s="40">
         <f t="shared" si="0"/>
         <v>2279.3</v>
       </c>
@@ -40995,116 +41087,116 @@
       <c r="W66" s="34">
         <v>3019.75</v>
       </c>
-      <c r="X66" s="34">
+      <c r="X66" s="35">
         <v>3019.75</v>
       </c>
-      <c r="Y66" s="38">
+      <c r="Y66" s="39">
         <v>3019.75</v>
       </c>
-      <c r="Z66" s="39">
+      <c r="Z66" s="40">
         <f t="shared" si="0"/>
         <v>2772.63</v>
       </c>
     </row>
     <row r="67" spans="2:26">
-      <c r="B67" s="37" t="s">
+      <c r="B67" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="C67" s="37"/>
-      <c r="D67" s="40">
+      <c r="C67" s="38"/>
+      <c r="D67" s="41">
         <v>1</v>
       </c>
-      <c r="E67" s="40">
+      <c r="E67" s="41">
         <v>2</v>
       </c>
-      <c r="F67" s="40">
+      <c r="F67" s="41">
         <v>2</v>
       </c>
-      <c r="G67" s="40">
+      <c r="G67" s="41">
         <v>0</v>
       </c>
-      <c r="H67" s="40">
+      <c r="H67" s="41">
         <v>2</v>
       </c>
-      <c r="I67" s="40">
+      <c r="I67" s="41">
         <v>5</v>
       </c>
-      <c r="J67" s="40">
+      <c r="J67" s="41">
         <v>4</v>
       </c>
-      <c r="K67" s="40">
+      <c r="K67" s="41">
         <v>0</v>
       </c>
-      <c r="L67" s="40">
+      <c r="L67" s="41">
         <v>4</v>
       </c>
-      <c r="M67" s="40">
+      <c r="M67" s="41">
         <v>7</v>
       </c>
-      <c r="N67" s="40">
+      <c r="N67" s="41">
         <v>5</v>
       </c>
-      <c r="O67" s="40">
+      <c r="O67" s="41">
         <v>0</v>
       </c>
-      <c r="P67" s="40">
+      <c r="P67" s="41">
         <v>1</v>
       </c>
-      <c r="Q67" s="40">
+      <c r="Q67" s="41">
         <v>1</v>
       </c>
-      <c r="R67" s="40">
+      <c r="R67" s="41">
         <v>2</v>
       </c>
-      <c r="S67" s="40">
+      <c r="S67" s="41">
         <v>0</v>
       </c>
-      <c r="T67" s="40">
+      <c r="T67" s="41">
         <v>8</v>
       </c>
-      <c r="U67" s="40">
+      <c r="U67" s="41">
         <v>9</v>
       </c>
-      <c r="V67" s="40">
+      <c r="V67" s="41">
         <v>14</v>
       </c>
-      <c r="W67" s="40">
+      <c r="W67" s="41">
         <v>2</v>
       </c>
-      <c r="X67" s="40">
+      <c r="X67" s="41">
         <v>2</v>
       </c>
-      <c r="Y67" s="40">
-        <v>28</v>
-      </c>
-      <c r="Z67" s="40"/>
+      <c r="Y67" s="41">
+        <v>27</v>
+      </c>
+      <c r="Z67" s="41"/>
     </row>
     <row r="68" ht="28" customHeight="1" spans="2:26">
-      <c r="B68" s="37"/>
-      <c r="C68" s="37"/>
-      <c r="D68" s="40"/>
-      <c r="E68" s="40"/>
-      <c r="F68" s="40"/>
-      <c r="G68" s="40"/>
-      <c r="H68" s="40"/>
-      <c r="I68" s="40"/>
-      <c r="J68" s="40"/>
-      <c r="K68" s="40"/>
-      <c r="L68" s="40"/>
-      <c r="M68" s="40"/>
-      <c r="N68" s="40"/>
-      <c r="O68" s="40"/>
-      <c r="P68" s="40"/>
-      <c r="Q68" s="40"/>
-      <c r="R68" s="40"/>
-      <c r="S68" s="40"/>
-      <c r="T68" s="40"/>
-      <c r="U68" s="40"/>
-      <c r="V68" s="40"/>
-      <c r="W68" s="40"/>
-      <c r="X68" s="40"/>
-      <c r="Y68" s="40"/>
-      <c r="Z68" s="40"/>
+      <c r="B68" s="38"/>
+      <c r="C68" s="38"/>
+      <c r="D68" s="41"/>
+      <c r="E68" s="41"/>
+      <c r="F68" s="41"/>
+      <c r="G68" s="41"/>
+      <c r="H68" s="41"/>
+      <c r="I68" s="41"/>
+      <c r="J68" s="41"/>
+      <c r="K68" s="41"/>
+      <c r="L68" s="41"/>
+      <c r="M68" s="41"/>
+      <c r="N68" s="41"/>
+      <c r="O68" s="41"/>
+      <c r="P68" s="41"/>
+      <c r="Q68" s="41"/>
+      <c r="R68" s="41"/>
+      <c r="S68" s="41"/>
+      <c r="T68" s="41"/>
+      <c r="U68" s="41"/>
+      <c r="V68" s="41"/>
+      <c r="W68" s="41"/>
+      <c r="X68" s="41"/>
+      <c r="Y68" s="41"/>
+      <c r="Z68" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="32">
@@ -41477,8 +41569,8 @@
   <sheetPr/>
   <dimension ref="B2:Y23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
